--- a/dataanalysis/alert/0710.xlsx
+++ b/dataanalysis/alert/0710.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowHeight="14605"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="203">
   <si>
     <t>序号</t>
   </si>
@@ -95,6 +95,9 @@
     <t>化学制剂</t>
   </si>
   <si>
+    <t>脑机</t>
+  </si>
+  <si>
     <t>否</t>
   </si>
   <si>
@@ -104,6 +107,9 @@
     <t>有机硅</t>
   </si>
   <si>
+    <t>硅</t>
+  </si>
+  <si>
     <t>是</t>
   </si>
   <si>
@@ -125,18 +131,27 @@
     <t>磁性材料</t>
   </si>
   <si>
+    <t>稀土永磁</t>
+  </si>
+  <si>
     <t>新国都</t>
   </si>
   <si>
     <t>其他IT设备</t>
   </si>
   <si>
+    <t>支付</t>
+  </si>
+  <si>
     <t>秀强股份</t>
   </si>
   <si>
     <t>家电零部件</t>
   </si>
   <si>
+    <t>BIVP+光伏</t>
+  </si>
+  <si>
     <t>华峰超纤</t>
   </si>
   <si>
@@ -149,42 +164,69 @@
     <t>玻纤制造</t>
   </si>
   <si>
+    <t>玻纤+预赢</t>
+  </si>
+  <si>
     <t>翰宇药业</t>
   </si>
   <si>
+    <t>创新药</t>
+  </si>
+  <si>
     <t>宝莱特</t>
   </si>
   <si>
+    <t>智能医疗</t>
+  </si>
+  <si>
     <t>仟源医药</t>
   </si>
   <si>
+    <t>医药</t>
+  </si>
+  <si>
     <t>通光线缆</t>
   </si>
   <si>
     <t>线缆部件及其他</t>
   </si>
   <si>
+    <t>线缆</t>
+  </si>
+  <si>
     <t>联建光电</t>
   </si>
   <si>
     <t>LED</t>
   </si>
   <si>
+    <t>军工 +LED</t>
+  </si>
+  <si>
     <t>迪森股份</t>
   </si>
   <si>
     <t>热力服务</t>
   </si>
   <si>
+    <t>电力</t>
+  </si>
+  <si>
     <t>长亮科技</t>
   </si>
   <si>
     <t>行业应用软件</t>
   </si>
   <si>
+    <t>互金</t>
+  </si>
+  <si>
     <t>广生堂</t>
   </si>
   <si>
+    <t>药店</t>
+  </si>
+  <si>
     <t>四方精创</t>
   </si>
   <si>
@@ -194,6 +236,9 @@
     <t>其他专用设备</t>
   </si>
   <si>
+    <t>氢能源</t>
+  </si>
+  <si>
     <t>赛升药业</t>
   </si>
   <si>
@@ -206,12 +251,18 @@
     <t>磷肥及磷化工</t>
   </si>
   <si>
+    <t>磷</t>
+  </si>
+  <si>
     <t>中船应急</t>
   </si>
   <si>
     <t>地面兵装</t>
   </si>
   <si>
+    <t>军工-地面兵装</t>
+  </si>
+  <si>
     <t>优博讯</t>
   </si>
   <si>
@@ -224,18 +275,27 @@
     <t>半导体材料</t>
   </si>
   <si>
+    <t>光刻胶</t>
+  </si>
+  <si>
     <t>三超新材</t>
   </si>
   <si>
     <t>磨具磨料</t>
   </si>
   <si>
+    <t>芯片</t>
+  </si>
+  <si>
     <t>晨曦航空</t>
   </si>
   <si>
     <t>航空装备</t>
   </si>
   <si>
+    <t>军工</t>
+  </si>
+  <si>
     <t>万里马</t>
   </si>
   <si>
@@ -251,6 +311,9 @@
     <t>汇纳科技</t>
   </si>
   <si>
+    <t>互金+算力</t>
+  </si>
+  <si>
     <t>正元智慧</t>
   </si>
   <si>
@@ -260,12 +323,18 @@
     <t>园林工程</t>
   </si>
   <si>
+    <t>稳定币</t>
+  </si>
+  <si>
     <t>大烨智能</t>
   </si>
   <si>
     <t>配电设备</t>
   </si>
   <si>
+    <t>海工+风电</t>
+  </si>
+  <si>
     <t>朗新集团</t>
   </si>
   <si>
@@ -275,6 +344,9 @@
     <t>铜</t>
   </si>
   <si>
+    <t>铜缆</t>
+  </si>
+  <si>
     <t>爱朋医疗</t>
   </si>
   <si>
@@ -290,6 +362,9 @@
     <t>工程咨询服务</t>
   </si>
   <si>
+    <t>智慧城市</t>
+  </si>
+  <si>
     <t>指南针</t>
   </si>
   <si>
@@ -302,6 +377,9 @@
     <t>其他化学制品</t>
   </si>
   <si>
+    <t>军工-船舶</t>
+  </si>
+  <si>
     <t>天阳科技</t>
   </si>
   <si>
@@ -317,48 +395,72 @@
     <t>PCB</t>
   </si>
   <si>
+    <t>固态电池+PCB</t>
+  </si>
+  <si>
     <t>屹通新材</t>
   </si>
   <si>
     <t>其他金属新材料</t>
   </si>
   <si>
+    <t>稀土+小金属</t>
+  </si>
+  <si>
     <t>德必集团</t>
   </si>
   <si>
     <t>商业物业经营</t>
   </si>
   <si>
+    <t>新消费+IP</t>
+  </si>
+  <si>
     <t>博亚精工</t>
   </si>
   <si>
     <t>机械基础件</t>
   </si>
   <si>
+    <t>军工+赔偿金1500w</t>
+  </si>
+  <si>
     <t>苏文电能</t>
   </si>
   <si>
     <t>基建工程</t>
   </si>
   <si>
+    <t>光伏</t>
+  </si>
+  <si>
     <t>川网传媒</t>
   </si>
   <si>
     <t>文字图片媒体</t>
   </si>
   <si>
+    <t>传媒</t>
+  </si>
+  <si>
     <t>创益通</t>
   </si>
   <si>
     <t>消费电子组件</t>
   </si>
   <si>
+    <t>铜缆+比亚迪</t>
+  </si>
+  <si>
     <t>玉马科技</t>
   </si>
   <si>
     <t>其他家居</t>
   </si>
   <si>
+    <t>家居</t>
+  </si>
+  <si>
     <t>霍普股份</t>
   </si>
   <si>
@@ -380,27 +482,45 @@
     <t>锂电池</t>
   </si>
   <si>
+    <t>固态电池</t>
+  </si>
+  <si>
     <t>锐捷网络</t>
   </si>
   <si>
     <t>网络接配及塔设</t>
   </si>
   <si>
+    <t>通讯+蚂蚁金服</t>
+  </si>
+  <si>
     <t>逸豪新材</t>
   </si>
   <si>
     <t>天亿马</t>
   </si>
   <si>
+    <t>重组 收购物联网平台</t>
+  </si>
+  <si>
     <t>工大科雅</t>
   </si>
   <si>
+    <t>华为鲲鹏</t>
+  </si>
+  <si>
     <t>中亦科技</t>
   </si>
   <si>
+    <t>AI</t>
+  </si>
+  <si>
     <t>铜冠铜箔</t>
   </si>
   <si>
+    <t>铜箔</t>
+  </si>
+  <si>
     <t>五洲医疗</t>
   </si>
   <si>
@@ -431,27 +551,42 @@
     <t>其他自动化设备</t>
   </si>
   <si>
+    <t>半导体设备</t>
+  </si>
+  <si>
     <t>涛涛车业</t>
   </si>
   <si>
     <t>其他交通设备</t>
   </si>
   <si>
+    <t>无人车+预赢</t>
+  </si>
+  <si>
     <t>欣灵电气</t>
   </si>
   <si>
     <t>隆扬电子</t>
   </si>
   <si>
+    <t>铜箔+英伟达</t>
+  </si>
+  <si>
     <t>波长光电</t>
   </si>
   <si>
     <t>光学元件</t>
   </si>
   <si>
+    <t>CPO</t>
+  </si>
+  <si>
     <t>德福科技</t>
   </si>
   <si>
+    <t>固态-铜箔</t>
+  </si>
+  <si>
     <t>国际复材</t>
   </si>
   <si>
@@ -470,9 +605,15 @@
     <t>前沿生物-U</t>
   </si>
   <si>
+    <t>创新药-艾滋病</t>
+  </si>
+  <si>
     <t>金橙子</t>
   </si>
   <si>
+    <t>3D打印</t>
+  </si>
+  <si>
     <t>微芯生物</t>
   </si>
   <si>
@@ -483,6 +624,9 @@
   </si>
   <si>
     <t>汇宇制药-W</t>
+  </si>
+  <si>
+    <t>创新药-肿瘤</t>
   </si>
   <si>
     <t>艾罗能源</t>
@@ -505,7 +649,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +698,12 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFDE322C"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -1044,16 +1194,13 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1062,119 +1209,122 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1193,27 +1343,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1520,13 +1682,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1777,18 +1932,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U90"/>
+  <dimension ref="A1:W90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:T84"/>
+      <selection activeCell="A2" sqref="A2:W84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <cols>
-    <col min="14" max="15" width="11.5"/>
+    <col min="14" max="15" width="11.5045045045045"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" spans="1:20">
+    <row r="1" ht="24.85" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1989,7 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="P1" s="6" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -1850,7 +2005,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1872,11 +2027,19 @@
       <c r="G2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="H2" s="4">
+        <v>-0.22</v>
+      </c>
+      <c r="I2" s="4">
+        <v>9.46</v>
+      </c>
+      <c r="J2" s="7">
+        <v>2.16</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="9"/>
       <c r="M2" s="4">
         <v>14</v>
       </c>
@@ -1889,21 +2052,29 @@
       <c r="P2" s="4">
         <v>-0.97</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>22</v>
+      <c r="Q2" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R2" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S2" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U2" s="12"/>
-    </row>
-    <row r="3" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U2" s="12">
+        <v>0</v>
+      </c>
+      <c r="V2" s="13">
+        <v>6.26</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1914,7 +2085,7 @@
         <v>300019</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" s="4">
         <v>18.29</v>
@@ -1923,13 +2094,21 @@
         <v>24.32</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="H3" s="4">
+        <v>-7.61</v>
+      </c>
+      <c r="I3" s="4">
+        <v>23.7</v>
+      </c>
+      <c r="J3" s="7">
+        <v>-2.55</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="9"/>
       <c r="M3" s="4">
         <v>2</v>
       </c>
@@ -1939,24 +2118,32 @@
       <c r="O3" s="4">
         <v>377149760</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="10">
         <v>2.79</v>
       </c>
-      <c r="Q3" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="R3" s="13" t="s">
-        <v>25</v>
+      <c r="Q3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U3" s="12"/>
-    </row>
-    <row r="4" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U3" s="15">
+        <v>1</v>
+      </c>
+      <c r="V3" s="13">
+        <v>7.32</v>
+      </c>
+      <c r="W3" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1967,7 +2154,7 @@
         <v>300030</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E4" s="4">
         <v>0.37</v>
@@ -1976,13 +2163,21 @@
         <v>8.19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H4" s="4">
+        <v>-4.88</v>
+      </c>
+      <c r="I4" s="4">
+        <v>8.13</v>
+      </c>
+      <c r="J4" s="7">
+        <v>-0.73</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="9"/>
       <c r="M4" s="4">
         <v>6</v>
       </c>
@@ -1995,21 +2190,29 @@
       <c r="P4" s="4">
         <v>0.05</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>22</v>
+      <c r="Q4" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R4" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S4" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T4" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="12"/>
-    </row>
-    <row r="5" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U4" s="12">
+        <v>0</v>
+      </c>
+      <c r="V4" s="13">
+        <v>3.36</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2020,7 +2223,7 @@
         <v>300043</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4">
         <v>1.86</v>
@@ -2029,13 +2232,21 @@
         <v>4.92</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H5" s="4">
+        <v>-0.81</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4.92</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="9"/>
       <c r="M5" s="4">
         <v>4</v>
       </c>
@@ -2045,24 +2256,32 @@
       <c r="O5" s="4">
         <v>64610534</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="10">
         <v>0.51</v>
       </c>
-      <c r="Q5" s="10" t="s">
-        <v>22</v>
+      <c r="Q5" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R5" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S5" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T5" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U5" s="12"/>
-    </row>
-    <row r="6" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U5" s="15">
+        <v>1</v>
+      </c>
+      <c r="V5" s="13">
+        <v>5.03</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2073,7 +2292,7 @@
         <v>300127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E6" s="4">
         <v>1.71</v>
@@ -2082,13 +2301,21 @@
         <v>29.75</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="H6" s="4">
+        <v>3.83</v>
+      </c>
+      <c r="I6" s="4">
+        <v>32.3</v>
+      </c>
+      <c r="J6" s="7">
+        <v>8.57</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="9"/>
       <c r="M6" s="4">
         <v>3</v>
       </c>
@@ -2098,24 +2325,32 @@
       <c r="O6" s="4">
         <v>-98261731</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="10">
         <v>0.46</v>
       </c>
-      <c r="Q6" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R6" s="13" t="s">
-        <v>25</v>
+      <c r="Q6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="S6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T6" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="12"/>
-    </row>
-    <row r="7" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T6" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0</v>
+      </c>
+      <c r="V6" s="13">
+        <v>1.28</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2126,7 +2361,7 @@
         <v>300130</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E7" s="4">
         <v>-5.08</v>
@@ -2135,13 +2370,21 @@
         <v>34.2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H7" s="4">
+        <v>-1.05</v>
+      </c>
+      <c r="I7" s="4">
+        <v>35.38</v>
+      </c>
+      <c r="J7" s="7">
+        <v>3.45</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="9"/>
       <c r="M7" s="4">
         <v>18</v>
       </c>
@@ -2154,21 +2397,29 @@
       <c r="P7" s="4">
         <v>-1.76</v>
       </c>
-      <c r="Q7" s="10" t="s">
-        <v>22</v>
+      <c r="Q7" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R7" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S7" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T7" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U7" s="12"/>
-    </row>
-    <row r="8" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U7" s="12">
+        <v>0</v>
+      </c>
+      <c r="V7" s="13">
+        <v>4.45</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -2179,7 +2430,7 @@
         <v>300160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E8" s="4">
         <v>-1.42</v>
@@ -2188,13 +2439,21 @@
         <v>6.27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+        <v>39</v>
+      </c>
+      <c r="H8" s="4">
+        <v>-1.28</v>
+      </c>
+      <c r="I8" s="4">
+        <v>6.42</v>
+      </c>
+      <c r="J8" s="7">
+        <v>2.39</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="L8" s="9"/>
       <c r="M8" s="4">
         <v>7</v>
       </c>
@@ -2204,24 +2463,32 @@
       <c r="O8" s="4">
         <v>-9070420</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="10">
         <v>0.32</v>
       </c>
-      <c r="Q8" s="10" t="s">
-        <v>22</v>
+      <c r="Q8" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R8" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S8" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U8" s="12"/>
-    </row>
-    <row r="9" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U8" s="12">
+        <v>0</v>
+      </c>
+      <c r="V8" s="13">
+        <v>6.08</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2232,7 +2499,7 @@
         <v>300180</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E9" s="4">
         <v>-2.86</v>
@@ -2241,13 +2508,21 @@
         <v>9.52</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4">
+        <v>3.05</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10.42</v>
+      </c>
+      <c r="J9" s="7">
+        <v>9.45</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="4">
         <v>17</v>
       </c>
@@ -2260,21 +2535,29 @@
       <c r="P9" s="4">
         <v>-1.26</v>
       </c>
-      <c r="Q9" s="10" t="s">
-        <v>22</v>
+      <c r="Q9" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R9" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U9" s="12"/>
-    </row>
-    <row r="10" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T9" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="12">
+        <v>0</v>
+      </c>
+      <c r="V9" s="13">
+        <v>2.92</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2285,7 +2568,7 @@
         <v>300196</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E10" s="4">
         <v>-1.83</v>
@@ -2294,13 +2577,21 @@
         <v>15</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="H10" s="4">
+        <v>-4.07</v>
+      </c>
+      <c r="I10" s="4">
+        <v>14.93</v>
+      </c>
+      <c r="J10" s="7">
+        <v>-0.47</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L10" s="9"/>
       <c r="M10" s="4">
         <v>7</v>
       </c>
@@ -2313,21 +2604,29 @@
       <c r="P10" s="4">
         <v>-0.68</v>
       </c>
-      <c r="Q10" s="10" t="s">
-        <v>22</v>
+      <c r="Q10" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R10" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S10" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U10" s="12"/>
-    </row>
-    <row r="11" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U10" s="12">
+        <v>0</v>
+      </c>
+      <c r="V10" s="13">
+        <v>5</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2338,7 +2637,7 @@
         <v>300199</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4">
         <v>-2.77</v>
@@ -2349,11 +2648,19 @@
       <c r="G11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="H11" s="4">
+        <v>1.48</v>
+      </c>
+      <c r="I11" s="4">
+        <v>18.91</v>
+      </c>
+      <c r="J11" s="7">
+        <v>3.67</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L11" s="9"/>
       <c r="M11" s="4">
         <v>7</v>
       </c>
@@ -2366,21 +2673,29 @@
       <c r="P11" s="4">
         <v>-0.7</v>
       </c>
-      <c r="Q11" s="10" t="s">
-        <v>22</v>
+      <c r="Q11" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R11" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U11" s="12"/>
-    </row>
-    <row r="12" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U11" s="12">
+        <v>0</v>
+      </c>
+      <c r="V11" s="13">
+        <v>2.58</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2391,7 +2706,7 @@
         <v>300246</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E12" s="4">
         <v>-1.08</v>
@@ -2400,13 +2715,21 @@
         <v>10.07</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H12" s="4">
+        <v>-7.05</v>
+      </c>
+      <c r="I12" s="4">
+        <v>9.97</v>
+      </c>
+      <c r="J12" s="7">
+        <v>-0.99</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="9"/>
       <c r="M12" s="4">
         <v>3</v>
       </c>
@@ -2419,21 +2742,29 @@
       <c r="P12" s="4">
         <v>-0.36</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>25</v>
+      <c r="Q12" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="R12" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S12" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T12" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U12" s="12"/>
-    </row>
-    <row r="13" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U12" s="12">
+        <v>0</v>
+      </c>
+      <c r="V12" s="13">
+        <v>4.11</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2444,7 +2775,7 @@
         <v>300254</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E13" s="4">
         <v>13.06</v>
@@ -2455,11 +2786,19 @@
       <c r="G13" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="H13" s="4">
+        <v>-3.45</v>
+      </c>
+      <c r="I13" s="4">
+        <v>11.67</v>
+      </c>
+      <c r="J13" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="9"/>
       <c r="M13" s="4">
         <v>1</v>
       </c>
@@ -2469,24 +2808,32 @@
       <c r="O13" s="4">
         <v>-305511734</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="10">
         <v>4.95</v>
       </c>
-      <c r="Q13" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R13" s="13" t="s">
-        <v>25</v>
+      <c r="Q13" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R13" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="S13" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U13" s="12"/>
-    </row>
-    <row r="14" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U13" s="12">
+        <v>0</v>
+      </c>
+      <c r="V13" s="13">
+        <v>1.32</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2497,7 +2844,7 @@
         <v>300265</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E14" s="4">
         <v>2.36</v>
@@ -2506,13 +2853,21 @@
         <v>10.39</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+        <v>53</v>
+      </c>
+      <c r="H14" s="4">
+        <v>-0.67</v>
+      </c>
+      <c r="I14" s="4">
+        <v>10.6</v>
+      </c>
+      <c r="J14" s="7">
+        <v>2.02</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L14" s="9"/>
       <c r="M14" s="4">
         <v>4</v>
       </c>
@@ -2525,21 +2880,29 @@
       <c r="P14" s="4">
         <v>-0.09</v>
       </c>
-      <c r="Q14" s="10" t="s">
-        <v>22</v>
+      <c r="Q14" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U14" s="12"/>
-    </row>
-    <row r="15" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U14" s="15">
+        <v>1</v>
+      </c>
+      <c r="V14" s="13">
+        <v>7.95</v>
+      </c>
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2550,7 +2913,7 @@
         <v>300269</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E15" s="4">
         <v>-4.2</v>
@@ -2559,13 +2922,21 @@
         <v>5.48</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+        <v>56</v>
+      </c>
+      <c r="H15" s="4">
+        <v>-1.09</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5.55</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1.28</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="9"/>
       <c r="M15" s="4">
         <v>9</v>
       </c>
@@ -2578,21 +2949,29 @@
       <c r="P15" s="4">
         <v>-0.58</v>
       </c>
-      <c r="Q15" s="10" t="s">
-        <v>22</v>
+      <c r="Q15" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U15" s="12"/>
-    </row>
-    <row r="16" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U15" s="12">
+        <v>0</v>
+      </c>
+      <c r="V15" s="13">
+        <v>-0.1</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -2603,7 +2982,7 @@
         <v>300335</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E16" s="4">
         <v>-7.56</v>
@@ -2612,13 +2991,21 @@
         <v>6.24</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.16</v>
+      </c>
+      <c r="I16" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L16" s="9"/>
       <c r="M16" s="4">
         <v>4</v>
       </c>
@@ -2631,21 +3018,29 @@
       <c r="P16" s="4">
         <v>-1.58</v>
       </c>
-      <c r="Q16" s="10" t="s">
-        <v>22</v>
+      <c r="Q16" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R16" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S16" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U16" s="12"/>
-    </row>
-    <row r="17" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U16" s="12">
+        <v>0</v>
+      </c>
+      <c r="V16" s="13">
+        <v>4.07</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -2656,7 +3051,7 @@
         <v>300348</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="E17" s="4">
         <v>0.78</v>
@@ -2665,13 +3060,21 @@
         <v>19.5</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H17" s="4">
+        <v>7.03</v>
+      </c>
+      <c r="I17" s="4">
+        <v>21</v>
+      </c>
+      <c r="J17" s="7">
+        <v>7.69</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L17" s="9"/>
       <c r="M17" s="4">
         <v>3</v>
       </c>
@@ -2684,21 +3087,29 @@
       <c r="P17" s="4">
         <v>-0.74</v>
       </c>
-      <c r="Q17" s="10" t="s">
-        <v>22</v>
+      <c r="Q17" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R17" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T17" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U17" s="12"/>
-    </row>
-    <row r="18" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U17" s="12">
+        <v>0</v>
+      </c>
+      <c r="V17" s="13">
+        <v>1.88</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -2709,7 +3120,7 @@
         <v>300436</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E18" s="4">
         <v>-0.89</v>
@@ -2720,11 +3131,19 @@
       <c r="G18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="H18" s="4">
+        <v>7.27</v>
+      </c>
+      <c r="I18" s="4">
+        <v>65.19</v>
+      </c>
+      <c r="J18" s="7">
+        <v>12.79</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="L18" s="9"/>
       <c r="M18" s="4">
         <v>6</v>
       </c>
@@ -2737,21 +3156,29 @@
       <c r="P18" s="4">
         <v>0.1</v>
       </c>
-      <c r="Q18" s="10" t="s">
-        <v>22</v>
+      <c r="Q18" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R18" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U18" s="12"/>
-    </row>
-    <row r="19" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T18" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U18" s="12">
+        <v>0</v>
+      </c>
+      <c r="V18" s="13">
+        <v>0.22</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -2762,7 +3189,7 @@
         <v>300468</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E19" s="4">
         <v>-8.46</v>
@@ -2771,13 +3198,21 @@
         <v>44.14</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.15</v>
+      </c>
+      <c r="I19" s="4">
+        <v>46.66</v>
+      </c>
+      <c r="J19" s="7">
+        <v>5.71</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L19" s="9"/>
       <c r="M19" s="4">
         <v>27</v>
       </c>
@@ -2790,21 +3225,29 @@
       <c r="P19" s="4">
         <v>-2.3</v>
       </c>
-      <c r="Q19" s="13" t="s">
-        <v>25</v>
+      <c r="Q19" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="R19" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T19" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U19" s="12"/>
-    </row>
-    <row r="20" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T19" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U19" s="12">
+        <v>0</v>
+      </c>
+      <c r="V19" s="13">
+        <v>12.36</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2815,7 +3258,7 @@
         <v>300471</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E20" s="4">
         <v>15.72</v>
@@ -2824,13 +3267,21 @@
         <v>12.44</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="H20" s="4">
+        <v>3.14</v>
+      </c>
+      <c r="I20" s="4">
+        <v>13.19</v>
+      </c>
+      <c r="J20" s="7">
+        <v>6.03</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="9"/>
       <c r="M20" s="4">
         <v>1</v>
       </c>
@@ -2840,24 +3291,32 @@
       <c r="O20" s="4">
         <v>-142912286</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="10">
         <v>3.3</v>
       </c>
-      <c r="Q20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>25</v>
+      <c r="Q20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T20" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U20" s="12"/>
-    </row>
-    <row r="21" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U20" s="12">
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <v>5.38</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2868,7 +3327,7 @@
         <v>300485</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="E21" s="4">
         <v>-2.99</v>
@@ -2877,13 +3336,21 @@
         <v>13.94</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="8"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="H21" s="4">
+        <v>-2.37</v>
+      </c>
+      <c r="I21" s="4">
+        <v>14.23</v>
+      </c>
+      <c r="J21" s="7">
+        <v>2.08</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L21" s="9"/>
       <c r="M21" s="4">
         <v>23</v>
       </c>
@@ -2896,21 +3363,29 @@
       <c r="P21" s="4">
         <v>-0.36</v>
       </c>
-      <c r="Q21" s="10" t="s">
-        <v>22</v>
+      <c r="Q21" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R21" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S21" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U21" s="12"/>
-    </row>
-    <row r="22" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U21" s="12">
+        <v>0</v>
+      </c>
+      <c r="V21" s="13">
+        <v>2.23</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2921,7 +3396,7 @@
         <v>300505</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E22" s="4">
         <v>0.5</v>
@@ -2930,13 +3405,21 @@
         <v>19.95</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0.15</v>
+      </c>
+      <c r="I22" s="4">
+        <v>20.14</v>
+      </c>
+      <c r="J22" s="7">
+        <v>0.95</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="L22" s="9"/>
       <c r="M22" s="4">
         <v>2</v>
       </c>
@@ -2946,24 +3429,32 @@
       <c r="O22" s="4">
         <v>-88119304</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="10">
         <v>0.45</v>
       </c>
-      <c r="Q22" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R22" s="13" t="s">
-        <v>25</v>
+      <c r="Q22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R22" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="S22" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U22" s="12"/>
-    </row>
-    <row r="23" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U22" s="12">
+        <v>0</v>
+      </c>
+      <c r="V22" s="13">
+        <v>4.3</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2974,7 +3465,7 @@
         <v>300527</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="E23" s="4">
         <v>1.56</v>
@@ -2983,13 +3474,21 @@
         <v>11.1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2.25</v>
+      </c>
+      <c r="I23" s="4">
+        <v>11.74</v>
+      </c>
+      <c r="J23" s="7">
+        <v>5.77</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="L23" s="9"/>
       <c r="M23" s="4">
         <v>8</v>
       </c>
@@ -3002,21 +3501,29 @@
       <c r="P23" s="4">
         <v>0.15</v>
       </c>
-      <c r="Q23" s="10" t="s">
-        <v>22</v>
+      <c r="Q23" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R23" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U23" s="12"/>
-    </row>
-    <row r="24" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T23" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U23" s="12">
+        <v>0</v>
+      </c>
+      <c r="V23" s="13">
+        <v>2.45</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3027,7 +3534,7 @@
         <v>300531</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="E24" s="4">
         <v>-2.43</v>
@@ -3036,13 +3543,21 @@
         <v>21.29</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I24" s="4">
+        <v>21.93</v>
+      </c>
+      <c r="J24" s="7">
+        <v>3.01</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L24" s="9"/>
       <c r="M24" s="4">
         <v>17</v>
       </c>
@@ -3055,21 +3570,29 @@
       <c r="P24" s="4">
         <v>-0.64</v>
       </c>
-      <c r="Q24" s="10" t="s">
-        <v>22</v>
+      <c r="Q24" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R24" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S24" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T24" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U24" s="12"/>
-    </row>
-    <row r="25" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U24" s="12">
+        <v>0</v>
+      </c>
+      <c r="V24" s="13">
+        <v>4.37</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3080,7 +3603,7 @@
         <v>300533</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="E25" s="4">
         <v>-2.01</v>
@@ -3089,13 +3612,21 @@
         <v>38.6</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="H25" s="4">
+        <v>-2.72</v>
+      </c>
+      <c r="I25" s="4">
+        <v>38.99</v>
+      </c>
+      <c r="J25" s="7">
+        <v>1.01</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="9"/>
       <c r="M25" s="4">
         <v>12</v>
       </c>
@@ -3108,21 +3639,29 @@
       <c r="P25" s="4">
         <v>-0.98</v>
       </c>
-      <c r="Q25" s="10" t="s">
-        <v>22</v>
+      <c r="Q25" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R25" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S25" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T25" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U25" s="12"/>
-    </row>
-    <row r="26" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U25" s="12">
+        <v>0</v>
+      </c>
+      <c r="V25" s="13">
+        <v>3.05</v>
+      </c>
+      <c r="W25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3133,7 +3672,7 @@
         <v>300537</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="E26" s="4">
         <v>1.03</v>
@@ -3142,13 +3681,21 @@
         <v>29.3</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="6"/>
-      <c r="L26" s="6"/>
+        <v>81</v>
+      </c>
+      <c r="H26" s="4">
+        <v>-4.51</v>
+      </c>
+      <c r="I26" s="4">
+        <v>29.31</v>
+      </c>
+      <c r="J26" s="7">
+        <v>0.03</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L26" s="9"/>
       <c r="M26" s="4">
         <v>9</v>
       </c>
@@ -3161,21 +3708,29 @@
       <c r="P26" s="4">
         <v>-2.11</v>
       </c>
-      <c r="Q26" s="10" t="s">
-        <v>22</v>
+      <c r="Q26" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R26" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S26" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T26" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U26" s="12"/>
-    </row>
-    <row r="27" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U26" s="15">
+        <v>1</v>
+      </c>
+      <c r="V26" s="13">
+        <v>2.83</v>
+      </c>
+      <c r="W26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3186,7 +3741,7 @@
         <v>300554</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="E27" s="4">
         <v>-3.79</v>
@@ -3195,13 +3750,21 @@
         <v>24.65</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
+        <v>84</v>
+      </c>
+      <c r="H27" s="4">
+        <v>-1.26</v>
+      </c>
+      <c r="I27" s="4">
+        <v>24.83</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0.73</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L27" s="9"/>
       <c r="M27" s="4">
         <v>6</v>
       </c>
@@ -3214,21 +3777,29 @@
       <c r="P27" s="4">
         <v>-0.4</v>
       </c>
-      <c r="Q27" s="10" t="s">
-        <v>22</v>
+      <c r="Q27" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R27" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S27" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T27" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U27" s="12"/>
-    </row>
-    <row r="28" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U27" s="12">
+        <v>0</v>
+      </c>
+      <c r="V27" s="13">
+        <v>1.42</v>
+      </c>
+      <c r="W27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3239,7 +3810,7 @@
         <v>300581</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E28" s="4">
         <v>-6.58</v>
@@ -3248,13 +3819,21 @@
         <v>19.59</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="H28" s="4">
+        <v>3.93</v>
+      </c>
+      <c r="I28" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="J28" s="7">
+        <v>6.18</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L28" s="9"/>
       <c r="M28" s="4">
         <v>18</v>
       </c>
@@ -3267,21 +3846,29 @@
       <c r="P28" s="4">
         <v>-1.41</v>
       </c>
-      <c r="Q28" s="10" t="s">
-        <v>22</v>
+      <c r="Q28" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R28" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U28" s="12"/>
-    </row>
-    <row r="29" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T28" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U28" s="12">
+        <v>0</v>
+      </c>
+      <c r="V28" s="13">
+        <v>0.87</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3292,7 +3879,7 @@
         <v>300591</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="E29" s="4">
         <v>-7.39</v>
@@ -3301,13 +3888,21 @@
         <v>11.9</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="H29" s="4">
+        <v>-5.13</v>
+      </c>
+      <c r="I29" s="4">
+        <v>11.99</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0.76</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L29" s="9"/>
       <c r="M29" s="4">
         <v>13</v>
       </c>
@@ -3320,21 +3915,29 @@
       <c r="P29" s="4">
         <v>-0.99</v>
       </c>
-      <c r="Q29" s="10" t="s">
-        <v>22</v>
+      <c r="Q29" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R29" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S29" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U29" s="12"/>
-    </row>
-    <row r="30" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U29" s="12">
+        <v>0</v>
+      </c>
+      <c r="V29" s="13">
+        <v>2.66</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3345,7 +3948,7 @@
         <v>300600</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E30" s="4">
         <v>-6.13</v>
@@ -3354,13 +3957,21 @@
         <v>13.94</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
+        <v>92</v>
+      </c>
+      <c r="H30" s="4">
+        <v>20.01</v>
+      </c>
+      <c r="I30" s="4">
+        <v>16.73</v>
+      </c>
+      <c r="J30" s="7">
+        <v>20.01</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" s="9"/>
       <c r="M30" s="4">
         <v>10</v>
       </c>
@@ -3373,21 +3984,29 @@
       <c r="P30" s="4">
         <v>-0.73</v>
       </c>
-      <c r="Q30" s="10" t="s">
-        <v>22</v>
+      <c r="Q30" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R30" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U30" s="12"/>
-    </row>
-    <row r="31" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T30" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U30" s="12">
+        <v>0</v>
+      </c>
+      <c r="V30" s="13">
+        <v>2.34</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3398,7 +4017,7 @@
         <v>300609</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="E31" s="4">
         <v>-2.26</v>
@@ -3407,13 +4026,21 @@
         <v>34.19</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="8"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H31" s="4">
+        <v>3.54</v>
+      </c>
+      <c r="I31" s="4">
+        <v>35.4</v>
+      </c>
+      <c r="J31" s="7">
+        <v>3.54</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L31" s="9"/>
       <c r="M31" s="4">
         <v>3</v>
       </c>
@@ -3426,21 +4053,29 @@
       <c r="P31" s="4">
         <v>-0.62</v>
       </c>
-      <c r="Q31" s="10" t="s">
-        <v>22</v>
+      <c r="Q31" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R31" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S31" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U31" s="12"/>
-    </row>
-    <row r="32" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U31" s="12">
+        <v>0</v>
+      </c>
+      <c r="V31" s="13">
+        <v>1.81</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -3451,7 +4086,7 @@
         <v>300645</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E32" s="4">
         <v>-3.64</v>
@@ -3460,13 +4095,21 @@
         <v>20.37</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H32" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="I32" s="4">
+        <v>20.96</v>
+      </c>
+      <c r="J32" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L32" s="9"/>
       <c r="M32" s="4">
         <v>13</v>
       </c>
@@ -3479,21 +4122,29 @@
       <c r="P32" s="4">
         <v>0.05</v>
       </c>
-      <c r="Q32" s="10" t="s">
-        <v>22</v>
+      <c r="Q32" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R32" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S32" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T32" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U32" s="12"/>
-    </row>
-    <row r="33" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U32" s="12">
+        <v>0</v>
+      </c>
+      <c r="V32" s="13">
+        <v>0.58</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -3504,7 +4155,7 @@
         <v>300649</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="E33" s="4">
         <v>-8.45</v>
@@ -3513,13 +4164,21 @@
         <v>20.15</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="H33" s="4">
+        <v>-3.23</v>
+      </c>
+      <c r="I33" s="4">
+        <v>20.1</v>
+      </c>
+      <c r="J33" s="7">
+        <v>-0.25</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" s="9"/>
       <c r="M33" s="4">
         <v>10</v>
       </c>
@@ -3532,21 +4191,29 @@
       <c r="P33" s="4">
         <v>-0.63</v>
       </c>
-      <c r="Q33" s="10" t="s">
-        <v>22</v>
+      <c r="Q33" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R33" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S33" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U33" s="12"/>
-    </row>
-    <row r="34" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U33" s="12">
+        <v>0</v>
+      </c>
+      <c r="V33" s="13">
+        <v>2.46</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -3557,7 +4224,7 @@
         <v>300670</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E34" s="4">
         <v>-2.66</v>
@@ -3566,13 +4233,21 @@
         <v>7.69</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="H34" s="4">
+        <v>-1.82</v>
+      </c>
+      <c r="I34" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="J34" s="7">
+        <v>2.73</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L34" s="9"/>
       <c r="M34" s="4">
         <v>6</v>
       </c>
@@ -3585,21 +4260,29 @@
       <c r="P34" s="4">
         <v>-1.04</v>
       </c>
-      <c r="Q34" s="10" t="s">
-        <v>22</v>
+      <c r="Q34" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R34" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S34" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U34" s="12"/>
-    </row>
-    <row r="35" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U34" s="12">
+        <v>0</v>
+      </c>
+      <c r="V34" s="13">
+        <v>0.53</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -3610,7 +4293,7 @@
         <v>300682</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="E35" s="4">
         <v>-4.38</v>
@@ -3619,13 +4302,21 @@
         <v>20.75</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H35" s="4">
+        <v>2.17</v>
+      </c>
+      <c r="I35" s="4">
+        <v>21.57</v>
+      </c>
+      <c r="J35" s="7">
+        <v>3.95</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L35" s="9"/>
       <c r="M35" s="4">
         <v>20</v>
       </c>
@@ -3638,21 +4329,29 @@
       <c r="P35" s="4">
         <v>-0.25</v>
       </c>
-      <c r="Q35" s="10" t="s">
-        <v>22</v>
+      <c r="Q35" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R35" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S35" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U35" s="12"/>
-    </row>
-    <row r="36" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U35" s="15">
+        <v>1</v>
+      </c>
+      <c r="V35" s="13">
+        <v>9.8</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3663,7 +4362,7 @@
         <v>300697</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="E36" s="4">
         <v>-0.96</v>
@@ -3672,13 +4371,21 @@
         <v>14.49</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="H36" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="I36" s="4">
+        <v>15.31</v>
+      </c>
+      <c r="J36" s="7">
+        <v>5.66</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="L36" s="9"/>
       <c r="M36" s="4">
         <v>8</v>
       </c>
@@ -3691,21 +4398,29 @@
       <c r="P36" s="4">
         <v>-0.07</v>
       </c>
-      <c r="Q36" s="10" t="s">
-        <v>22</v>
+      <c r="Q36" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R36" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T36" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U36" s="12"/>
-    </row>
-    <row r="37" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T36" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U36" s="12">
+        <v>0</v>
+      </c>
+      <c r="V36" s="13">
+        <v>1.5</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -3716,7 +4431,7 @@
         <v>300753</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="E37" s="4">
         <v>0.8</v>
@@ -3725,13 +4440,21 @@
         <v>31.35</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="H37" s="4">
+        <v>-1.72</v>
+      </c>
+      <c r="I37" s="4">
+        <v>31.35</v>
+      </c>
+      <c r="J37" s="7">
+        <v>0</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L37" s="9"/>
       <c r="M37" s="4">
         <v>18</v>
       </c>
@@ -3744,21 +4467,29 @@
       <c r="P37" s="4">
         <v>-0.48</v>
       </c>
-      <c r="Q37" s="10" t="s">
-        <v>22</v>
+      <c r="Q37" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R37" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S37" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U37" s="12"/>
-    </row>
-    <row r="38" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U37" s="12">
+        <v>0</v>
+      </c>
+      <c r="V37" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -3769,7 +4500,7 @@
         <v>300773</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="E38" s="4">
         <v>-3.95</v>
@@ -3778,13 +4509,21 @@
         <v>29.19</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
+        <v>108</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1.1</v>
+      </c>
+      <c r="I38" s="4">
+        <v>30.35</v>
+      </c>
+      <c r="J38" s="7">
+        <v>3.97</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L38" s="9"/>
       <c r="M38" s="4">
         <v>26</v>
       </c>
@@ -3797,21 +4536,29 @@
       <c r="P38" s="4">
         <v>-0.81</v>
       </c>
-      <c r="Q38" s="10" t="s">
-        <v>22</v>
+      <c r="Q38" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U38" s="12"/>
-    </row>
-    <row r="39" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U38" s="12">
+        <v>0</v>
+      </c>
+      <c r="V38" s="13">
+        <v>4.17</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -3822,7 +4569,7 @@
         <v>300778</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E39" s="4">
         <v>19.99</v>
@@ -3831,13 +4578,21 @@
         <v>21.43</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="8"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="H39" s="4">
+        <v>-12.93</v>
+      </c>
+      <c r="I39" s="4">
+        <v>21.39</v>
+      </c>
+      <c r="J39" s="7">
+        <v>-0.19</v>
+      </c>
+      <c r="K39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="L39" s="9"/>
       <c r="M39" s="4">
         <v>3</v>
       </c>
@@ -3850,21 +4605,29 @@
       <c r="P39" s="4">
         <v>-0.85</v>
       </c>
-      <c r="Q39" s="10" t="s">
-        <v>22</v>
+      <c r="Q39" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U39" s="12"/>
-    </row>
-    <row r="40" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U39" s="15">
+        <v>1</v>
+      </c>
+      <c r="V39" s="13">
+        <v>14.49</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -3875,7 +4638,7 @@
         <v>300803</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="E40" s="4">
         <v>-0.22</v>
@@ -3884,13 +4647,21 @@
         <v>78.63</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="8"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H40" s="4">
+        <v>13.06</v>
+      </c>
+      <c r="I40" s="4">
+        <v>92.99</v>
+      </c>
+      <c r="J40" s="7">
+        <v>18.26</v>
+      </c>
+      <c r="K40" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="L40" s="9"/>
       <c r="M40" s="4">
         <v>10</v>
       </c>
@@ -3903,21 +4674,29 @@
       <c r="P40" s="4">
         <v>-0.02</v>
       </c>
-      <c r="Q40" s="10" t="s">
-        <v>22</v>
+      <c r="Q40" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R40" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T40" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U40" s="12"/>
-    </row>
-    <row r="41" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T40" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U40" s="12">
+        <v>0</v>
+      </c>
+      <c r="V40" s="13">
+        <v>4.37</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -3928,7 +4707,7 @@
         <v>300821</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="E41" s="4">
         <v>4.92</v>
@@ -3937,13 +4716,21 @@
         <v>10.66</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="I41" s="6"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="6"/>
-      <c r="L41" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="H41" s="4">
+        <v>-3.56</v>
+      </c>
+      <c r="I41" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="J41" s="7">
+        <v>0.38</v>
+      </c>
+      <c r="K41" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="L41" s="9"/>
       <c r="M41" s="4">
         <v>3</v>
       </c>
@@ -3956,21 +4743,29 @@
       <c r="P41" s="4">
         <v>-0.62</v>
       </c>
-      <c r="Q41" s="10" t="s">
-        <v>22</v>
+      <c r="Q41" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R41" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S41" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T41" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U41" s="12"/>
-    </row>
-    <row r="42" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U41" s="12">
+        <v>0</v>
+      </c>
+      <c r="V41" s="13">
+        <v>1.13</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -3981,7 +4776,7 @@
         <v>300847</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
       <c r="E42" s="4">
         <v>3.66</v>
@@ -3990,13 +4785,21 @@
         <v>21.5</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="I42" s="6"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="6"/>
-      <c r="L42" s="6"/>
+        <v>115</v>
+      </c>
+      <c r="H42" s="4">
+        <v>-0.23</v>
+      </c>
+      <c r="I42" s="4">
+        <v>22.99</v>
+      </c>
+      <c r="J42" s="7">
+        <v>6.93</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="L42" s="9"/>
       <c r="M42" s="4">
         <v>4</v>
       </c>
@@ -4006,24 +4809,32 @@
       <c r="O42" s="4">
         <v>45877134</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="10">
         <v>1.14</v>
       </c>
-      <c r="Q42" s="10" t="s">
-        <v>22</v>
+      <c r="Q42" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R42" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S42" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T42" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U42" s="12"/>
-    </row>
-    <row r="43" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U42" s="12">
+        <v>0</v>
+      </c>
+      <c r="V42" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4034,7 +4845,7 @@
         <v>300872</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="E43" s="4">
         <v>-2.55</v>
@@ -4043,13 +4854,21 @@
         <v>25.2</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" s="6"/>
-      <c r="I43" s="6"/>
-      <c r="J43" s="8"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="H43" s="4">
+        <v>-0.75</v>
+      </c>
+      <c r="I43" s="4">
+        <v>25.74</v>
+      </c>
+      <c r="J43" s="7">
+        <v>2.14</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L43" s="9"/>
       <c r="M43" s="4">
         <v>19</v>
       </c>
@@ -4062,21 +4881,29 @@
       <c r="P43" s="4">
         <v>-0.9</v>
       </c>
-      <c r="Q43" s="10" t="s">
-        <v>22</v>
+      <c r="Q43" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R43" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S43" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U43" s="12"/>
-    </row>
-    <row r="44" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U43" s="12">
+        <v>0</v>
+      </c>
+      <c r="V43" s="13">
+        <v>5.88</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -4087,7 +4914,7 @@
         <v>300875</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="E44" s="4">
         <v>-8.6</v>
@@ -4096,13 +4923,21 @@
         <v>42.96</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="J44" s="8"/>
-      <c r="K44" s="6"/>
-      <c r="L44" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="H44" s="4">
+        <v>-0.19</v>
+      </c>
+      <c r="I44" s="4">
+        <v>43.9</v>
+      </c>
+      <c r="J44" s="7">
+        <v>2.19</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L44" s="9"/>
       <c r="M44" s="4">
         <v>9</v>
       </c>
@@ -4115,21 +4950,29 @@
       <c r="P44" s="4">
         <v>-2.14</v>
       </c>
-      <c r="Q44" s="10" t="s">
-        <v>22</v>
+      <c r="Q44" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R44" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S44" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T44" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U44" s="12"/>
-    </row>
-    <row r="45" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U44" s="12">
+        <v>0</v>
+      </c>
+      <c r="V44" s="13">
+        <v>1.86</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -4140,7 +4983,7 @@
         <v>300903</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="E45" s="4">
         <v>-3.33</v>
@@ -4149,13 +4992,21 @@
         <v>10.73</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="8"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="H45" s="4">
+        <v>-1.77</v>
+      </c>
+      <c r="I45" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="J45" s="7">
+        <v>3.45</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L45" s="9"/>
       <c r="M45" s="4">
         <v>15</v>
       </c>
@@ -4168,21 +5019,29 @@
       <c r="P45" s="4">
         <v>-0.92</v>
       </c>
-      <c r="Q45" s="10" t="s">
-        <v>22</v>
+      <c r="Q45" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R45" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S45" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T45" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U45" s="12"/>
-    </row>
-    <row r="46" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U45" s="12">
+        <v>0</v>
+      </c>
+      <c r="V45" s="13">
+        <v>3.2</v>
+      </c>
+      <c r="W45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -4193,7 +5052,7 @@
         <v>300930</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="E46" s="4">
         <v>-5.84</v>
@@ -4202,13 +5061,21 @@
         <v>32.58</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1.57</v>
+      </c>
+      <c r="I46" s="4">
+        <v>33.29</v>
+      </c>
+      <c r="J46" s="7">
+        <v>2.18</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L46" s="9"/>
       <c r="M46" s="4">
         <v>1</v>
       </c>
@@ -4221,21 +5088,29 @@
       <c r="P46" s="4">
         <v>0.16</v>
       </c>
-      <c r="Q46" s="10" t="s">
-        <v>22</v>
+      <c r="Q46" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R46" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S46" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T46" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U46" s="12"/>
-    </row>
-    <row r="47" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U46" s="12">
+        <v>0</v>
+      </c>
+      <c r="V46" s="13">
+        <v>8.57</v>
+      </c>
+      <c r="W46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -4246,7 +5121,7 @@
         <v>300947</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>98</v>
+        <v>126</v>
       </c>
       <c r="E47" s="4">
         <v>11.11</v>
@@ -4255,13 +5130,21 @@
         <v>27.51</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="H47" s="4">
+        <v>-3.31</v>
+      </c>
+      <c r="I47" s="4">
+        <v>27.5</v>
+      </c>
+      <c r="J47" s="7">
+        <v>-0.04</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="L47" s="9"/>
       <c r="M47" s="4">
         <v>3</v>
       </c>
@@ -4271,24 +5154,32 @@
       <c r="O47" s="4">
         <v>143842161</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="10">
         <v>0.81</v>
       </c>
-      <c r="Q47" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R47" s="13" t="s">
-        <v>25</v>
+      <c r="Q47" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R47" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="S47" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T47" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U47" s="12"/>
-    </row>
-    <row r="48" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U47" s="15">
+        <v>1</v>
+      </c>
+      <c r="V47" s="13">
+        <v>4.54</v>
+      </c>
+      <c r="W47" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -4299,7 +5190,7 @@
         <v>300971</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>100</v>
+        <v>129</v>
       </c>
       <c r="E48" s="4">
         <v>-4.04</v>
@@ -4308,13 +5199,21 @@
         <v>21.85</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="8"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
+        <v>130</v>
+      </c>
+      <c r="H48" s="4">
+        <v>0.55</v>
+      </c>
+      <c r="I48" s="4">
+        <v>22.18</v>
+      </c>
+      <c r="J48" s="7">
+        <v>1.51</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="L48" s="9"/>
       <c r="M48" s="4">
         <v>8</v>
       </c>
@@ -4327,21 +5226,29 @@
       <c r="P48" s="4">
         <v>-0.63</v>
       </c>
-      <c r="Q48" s="10" t="s">
-        <v>22</v>
+      <c r="Q48" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R48" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S48" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T48" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U48" s="12"/>
-    </row>
-    <row r="49" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U48" s="12">
+        <v>0</v>
+      </c>
+      <c r="V48" s="13">
+        <v>-0.38</v>
+      </c>
+      <c r="W48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -4352,7 +5259,7 @@
         <v>300982</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
       <c r="E49" s="4">
         <v>-6.96</v>
@@ -4361,13 +5268,21 @@
         <v>22.04</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="8"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="H49" s="4">
+        <v>-3.54</v>
+      </c>
+      <c r="I49" s="4">
+        <v>22.04</v>
+      </c>
+      <c r="J49" s="7">
+        <v>0</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L49" s="9"/>
       <c r="M49" s="4">
         <v>3</v>
       </c>
@@ -4380,21 +5295,29 @@
       <c r="P49" s="4">
         <v>-0.06</v>
       </c>
-      <c r="Q49" s="10" t="s">
-        <v>22</v>
+      <c r="Q49" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R49" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S49" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T49" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U49" s="12"/>
-    </row>
-    <row r="50" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U49" s="12">
+        <v>0</v>
+      </c>
+      <c r="V49" s="13">
+        <v>-1.69</v>
+      </c>
+      <c r="W49" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -4405,7 +5328,7 @@
         <v>300987</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E50" s="4">
         <v>-1.66</v>
@@ -4414,13 +5337,21 @@
         <v>20.2</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="8"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
+        <v>136</v>
+      </c>
+      <c r="H50" s="4">
+        <v>-2.08</v>
+      </c>
+      <c r="I50" s="4">
+        <v>20.19</v>
+      </c>
+      <c r="J50" s="7">
+        <v>-0.05</v>
+      </c>
+      <c r="K50" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="L50" s="9"/>
       <c r="M50" s="4">
         <v>1</v>
       </c>
@@ -4433,21 +5364,29 @@
       <c r="P50" s="4">
         <v>-0.43</v>
       </c>
-      <c r="Q50" s="10" t="s">
-        <v>22</v>
+      <c r="Q50" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R50" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S50" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T50" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U50" s="12"/>
-    </row>
-    <row r="51" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U50" s="12">
+        <v>0</v>
+      </c>
+      <c r="V50" s="13">
+        <v>0.59</v>
+      </c>
+      <c r="W50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -4458,7 +5397,7 @@
         <v>300991</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="E51" s="4">
         <v>-4.88</v>
@@ -4467,13 +5406,21 @@
         <v>32.18</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="8"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="H51" s="4">
+        <v>-7.49</v>
+      </c>
+      <c r="I51" s="4">
+        <v>31.13</v>
+      </c>
+      <c r="J51" s="7">
+        <v>-3.26</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L51" s="9"/>
       <c r="M51" s="4">
         <v>9</v>
       </c>
@@ -4486,21 +5433,29 @@
       <c r="P51" s="4">
         <v>-1.23</v>
       </c>
-      <c r="Q51" s="10" t="s">
-        <v>22</v>
+      <c r="Q51" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R51" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S51" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T51" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U51" s="12"/>
-    </row>
-    <row r="52" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U51" s="15">
+        <v>1</v>
+      </c>
+      <c r="V51" s="13">
+        <v>6.88</v>
+      </c>
+      <c r="W51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -4511,7 +5466,7 @@
         <v>300993</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="E52" s="4">
         <v>-1.05</v>
@@ -4520,13 +5475,21 @@
         <v>15.01</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="8"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
+        <v>142</v>
+      </c>
+      <c r="H52" s="4">
+        <v>-1.27</v>
+      </c>
+      <c r="I52" s="4">
+        <v>14.98</v>
+      </c>
+      <c r="J52" s="7">
+        <v>-0.2</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L52" s="9"/>
       <c r="M52" s="4">
         <v>9</v>
       </c>
@@ -4539,21 +5502,29 @@
       <c r="P52" s="4">
         <v>-0.65</v>
       </c>
-      <c r="Q52" s="10" t="s">
-        <v>22</v>
+      <c r="Q52" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R52" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S52" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T52" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U52" s="12"/>
-    </row>
-    <row r="53" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U52" s="12">
+        <v>0</v>
+      </c>
+      <c r="V52" s="13">
+        <v>4.91</v>
+      </c>
+      <c r="W52" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -4564,7 +5535,7 @@
         <v>301024</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="E53" s="4">
         <v>-1.51</v>
@@ -4573,13 +5544,21 @@
         <v>56.6</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="8"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
+        <v>110</v>
+      </c>
+      <c r="H53" s="4">
+        <v>-5.51</v>
+      </c>
+      <c r="I53" s="4">
+        <v>62.53</v>
+      </c>
+      <c r="J53" s="7">
+        <v>10.48</v>
+      </c>
+      <c r="K53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="L53" s="9"/>
       <c r="M53" s="4">
         <v>8</v>
       </c>
@@ -4592,21 +5571,29 @@
       <c r="P53" s="4">
         <v>-0.09</v>
       </c>
-      <c r="Q53" s="10" t="s">
-        <v>22</v>
+      <c r="Q53" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R53" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S53" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T53" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U53" s="12"/>
-    </row>
-    <row r="54" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T53" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U53" s="12">
+        <v>0</v>
+      </c>
+      <c r="V53" s="13">
+        <v>3.63</v>
+      </c>
+      <c r="W53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -4617,7 +5604,7 @@
         <v>301120</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="E54" s="4">
         <v>0.85</v>
@@ -4626,13 +5613,21 @@
         <v>14.24</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="8"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
+        <v>146</v>
+      </c>
+      <c r="H54" s="4">
+        <v>-8.5</v>
+      </c>
+      <c r="I54" s="4">
+        <v>13.9</v>
+      </c>
+      <c r="J54" s="7">
+        <v>-2.39</v>
+      </c>
+      <c r="K54" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L54" s="9"/>
       <c r="M54" s="4">
         <v>2</v>
       </c>
@@ -4645,21 +5640,29 @@
       <c r="P54" s="4">
         <v>-5.14</v>
       </c>
-      <c r="Q54" s="10" t="s">
-        <v>22</v>
+      <c r="Q54" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R54" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S54" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T54" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U54" s="12"/>
-    </row>
-    <row r="55" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U54" s="15">
+        <v>1</v>
+      </c>
+      <c r="V54" s="13">
+        <v>1.6</v>
+      </c>
+      <c r="W54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -4670,7 +5673,7 @@
         <v>301132</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="E55" s="4">
         <v>-3.14</v>
@@ -4679,13 +5682,21 @@
         <v>34.52</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="H55" s="4">
+        <v>-1.16</v>
+      </c>
+      <c r="I55" s="4">
+        <v>34.39</v>
+      </c>
+      <c r="J55" s="7">
+        <v>-0.38</v>
+      </c>
+      <c r="K55" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L55" s="9"/>
       <c r="M55" s="4">
         <v>13</v>
       </c>
@@ -4698,21 +5709,29 @@
       <c r="P55" s="4">
         <v>-2.06</v>
       </c>
-      <c r="Q55" s="10" t="s">
-        <v>22</v>
+      <c r="Q55" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R55" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S55" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T55" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U55" s="12"/>
-    </row>
-    <row r="56" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U55" s="12">
+        <v>0</v>
+      </c>
+      <c r="V55" s="13">
+        <v>1.51</v>
+      </c>
+      <c r="W55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -4723,7 +5742,7 @@
         <v>301141</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="E56" s="4">
         <v>4.06</v>
@@ -4732,13 +5751,21 @@
         <v>65.05</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="8"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="H56" s="4">
+        <v>14.77</v>
+      </c>
+      <c r="I56" s="4">
+        <v>77.8</v>
+      </c>
+      <c r="J56" s="7">
+        <v>19.6</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L56" s="9"/>
       <c r="M56" s="4">
         <v>10</v>
       </c>
@@ -4751,21 +5778,29 @@
       <c r="P56" s="4">
         <v>-0.52</v>
       </c>
-      <c r="Q56" s="10" t="s">
-        <v>22</v>
+      <c r="Q56" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R56" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S56" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T56" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U56" s="12"/>
-    </row>
-    <row r="57" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T56" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U56" s="12">
+        <v>0</v>
+      </c>
+      <c r="V56" s="13">
+        <v>-0.26</v>
+      </c>
+      <c r="W56" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -4776,7 +5811,7 @@
         <v>301150</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>115</v>
+        <v>149</v>
       </c>
       <c r="E57" s="4">
         <v>-7.93</v>
@@ -4785,13 +5820,21 @@
         <v>23.68</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="H57" s="4">
+        <v>-2.96</v>
+      </c>
+      <c r="I57" s="4">
+        <v>23.87</v>
+      </c>
+      <c r="J57" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="K57" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L57" s="9"/>
       <c r="M57" s="4">
         <v>6</v>
       </c>
@@ -4804,21 +5847,29 @@
       <c r="P57" s="4">
         <v>-0.74</v>
       </c>
-      <c r="Q57" s="10" t="s">
-        <v>22</v>
+      <c r="Q57" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R57" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S57" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T57" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U57" s="12"/>
-    </row>
-    <row r="58" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U57" s="12">
+        <v>0</v>
+      </c>
+      <c r="V57" s="13">
+        <v>2.81</v>
+      </c>
+      <c r="W57" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -4829,7 +5880,7 @@
         <v>301165</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>117</v>
+        <v>152</v>
       </c>
       <c r="E58" s="4">
         <v>-1.52</v>
@@ -4838,13 +5889,21 @@
         <v>59.56</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
+        <v>153</v>
+      </c>
+      <c r="H58" s="4">
+        <v>2</v>
+      </c>
+      <c r="I58" s="4">
+        <v>61.49</v>
+      </c>
+      <c r="J58" s="7">
+        <v>3.24</v>
+      </c>
+      <c r="K58" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="L58" s="9"/>
       <c r="M58" s="4">
         <v>1</v>
       </c>
@@ -4857,21 +5916,29 @@
       <c r="P58" s="4">
         <v>-0.4</v>
       </c>
-      <c r="Q58" s="10" t="s">
-        <v>22</v>
+      <c r="Q58" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R58" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S58" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T58" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U58" s="12"/>
-    </row>
-    <row r="59" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U58" s="12">
+        <v>0</v>
+      </c>
+      <c r="V58" s="13">
+        <v>2.63</v>
+      </c>
+      <c r="W58" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -4882,7 +5949,7 @@
         <v>301176</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="E59" s="4">
         <v>-6.87</v>
@@ -4891,13 +5958,21 @@
         <v>36.75</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
+        <v>121</v>
+      </c>
+      <c r="H59" s="4">
+        <v>-6.07</v>
+      </c>
+      <c r="I59" s="4">
+        <v>35.46</v>
+      </c>
+      <c r="J59" s="7">
+        <v>-3.51</v>
+      </c>
+      <c r="K59" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L59" s="9"/>
       <c r="M59" s="4">
         <v>15</v>
       </c>
@@ -4910,21 +5985,29 @@
       <c r="P59" s="4">
         <v>-1.14</v>
       </c>
-      <c r="Q59" s="10" t="s">
-        <v>22</v>
+      <c r="Q59" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R59" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S59" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T59" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U59" s="12"/>
-    </row>
-    <row r="60" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U59" s="12">
+        <v>0</v>
+      </c>
+      <c r="V59" s="13">
+        <v>3.28</v>
+      </c>
+      <c r="W59" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -4935,7 +6018,7 @@
         <v>301178</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="E60" s="4">
         <v>-2.67</v>
@@ -4944,13 +6027,21 @@
         <v>57.31</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="8"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H60" s="4">
+        <v>1.12</v>
+      </c>
+      <c r="I60" s="4">
+        <v>58.86</v>
+      </c>
+      <c r="J60" s="7">
+        <v>2.7</v>
+      </c>
+      <c r="K60" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L60" s="9"/>
       <c r="M60" s="4">
         <v>4</v>
       </c>
@@ -4963,21 +6054,29 @@
       <c r="P60" s="4">
         <v>-1.47</v>
       </c>
-      <c r="Q60" s="10" t="s">
-        <v>22</v>
+      <c r="Q60" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R60" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S60" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T60" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U60" s="12"/>
-    </row>
-    <row r="61" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U60" s="12">
+        <v>0</v>
+      </c>
+      <c r="V60" s="13">
+        <v>0.62</v>
+      </c>
+      <c r="W60" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -4988,7 +6087,7 @@
         <v>301197</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="E61" s="4">
         <v>-6.4</v>
@@ -4997,13 +6096,21 @@
         <v>22.54</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H61" s="6"/>
-      <c r="I61" s="6"/>
-      <c r="J61" s="8"/>
-      <c r="K61" s="6"/>
-      <c r="L61" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H61" s="4">
+        <v>4.37</v>
+      </c>
+      <c r="I61" s="4">
+        <v>25.8</v>
+      </c>
+      <c r="J61" s="7">
+        <v>14.46</v>
+      </c>
+      <c r="K61" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="L61" s="9"/>
       <c r="M61" s="4">
         <v>3</v>
       </c>
@@ -5016,21 +6123,29 @@
       <c r="P61" s="4">
         <v>-0.85</v>
       </c>
-      <c r="Q61" s="10" t="s">
-        <v>22</v>
+      <c r="Q61" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R61" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S61" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T61" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U61" s="12"/>
-    </row>
-    <row r="62" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T61" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U61" s="12">
+        <v>0</v>
+      </c>
+      <c r="V61" s="13">
+        <v>-0.74</v>
+      </c>
+      <c r="W61" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -5041,7 +6156,7 @@
         <v>301208</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="E62" s="4">
         <v>-9.23</v>
@@ -5050,13 +6165,21 @@
         <v>48.26</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H62" s="6"/>
-      <c r="I62" s="6"/>
-      <c r="J62" s="8"/>
-      <c r="K62" s="6"/>
-      <c r="L62" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H62" s="4">
+        <v>6.46</v>
+      </c>
+      <c r="I62" s="4">
+        <v>52.5</v>
+      </c>
+      <c r="J62" s="7">
+        <v>8.79</v>
+      </c>
+      <c r="K62" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="L62" s="9"/>
       <c r="M62" s="4">
         <v>2</v>
       </c>
@@ -5069,21 +6192,29 @@
       <c r="P62" s="4">
         <v>-2.05</v>
       </c>
-      <c r="Q62" s="10" t="s">
-        <v>22</v>
+      <c r="Q62" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R62" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S62" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T62" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U62" s="12"/>
-    </row>
-    <row r="63" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T62" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U62" s="12">
+        <v>0</v>
+      </c>
+      <c r="V62" s="13">
+        <v>2.3</v>
+      </c>
+      <c r="W62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -5094,7 +6225,7 @@
         <v>301217</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>123</v>
+        <v>162</v>
       </c>
       <c r="E63" s="4">
         <v>-4.94</v>
@@ -5103,13 +6234,21 @@
         <v>19.26</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H63" s="6"/>
-      <c r="I63" s="6"/>
-      <c r="J63" s="8"/>
-      <c r="K63" s="6"/>
-      <c r="L63" s="6"/>
+        <v>104</v>
+      </c>
+      <c r="H63" s="4">
+        <v>-0.16</v>
+      </c>
+      <c r="I63" s="4">
+        <v>20.72</v>
+      </c>
+      <c r="J63" s="7">
+        <v>7.58</v>
+      </c>
+      <c r="K63" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="L63" s="9"/>
       <c r="M63" s="4">
         <v>4</v>
       </c>
@@ -5122,21 +6261,29 @@
       <c r="P63" s="4">
         <v>-3.05</v>
       </c>
-      <c r="Q63" s="10" t="s">
-        <v>22</v>
+      <c r="Q63" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R63" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S63" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T63" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U63" s="12"/>
-    </row>
-    <row r="64" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T63" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U63" s="12">
+        <v>0</v>
+      </c>
+      <c r="V63" s="13">
+        <v>2.06</v>
+      </c>
+      <c r="W63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -5147,7 +6294,7 @@
         <v>301234</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="E64" s="4">
         <v>-5.43</v>
@@ -5156,13 +6303,21 @@
         <v>37.26</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="H64" s="6"/>
-      <c r="I64" s="6"/>
-      <c r="J64" s="8"/>
-      <c r="K64" s="6"/>
-      <c r="L64" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="H64" s="4">
+        <v>-6.33</v>
+      </c>
+      <c r="I64" s="4">
+        <v>35.97</v>
+      </c>
+      <c r="J64" s="7">
+        <v>-3.46</v>
+      </c>
+      <c r="K64" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L64" s="9"/>
       <c r="M64" s="4">
         <v>1</v>
       </c>
@@ -5175,21 +6330,29 @@
       <c r="P64" s="4">
         <v>-0.19</v>
       </c>
-      <c r="Q64" s="10" t="s">
-        <v>22</v>
+      <c r="Q64" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R64" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S64" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T64" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U64" s="12"/>
-    </row>
-    <row r="65" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U64" s="12">
+        <v>0</v>
+      </c>
+      <c r="V64" s="13">
+        <v>3.24</v>
+      </c>
+      <c r="W64" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -5200,7 +6363,7 @@
         <v>301257</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="E65" s="4">
         <v>-5.88</v>
@@ -5209,13 +6372,21 @@
         <v>36.51</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="8"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="H65" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="I65" s="4">
+        <v>38.66</v>
+      </c>
+      <c r="J65" s="7">
+        <v>5.89</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L65" s="9"/>
       <c r="M65" s="4">
         <v>1</v>
       </c>
@@ -5228,21 +6399,29 @@
       <c r="P65" s="4">
         <v>-0.94</v>
       </c>
-      <c r="Q65" s="10" t="s">
-        <v>22</v>
+      <c r="Q65" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R65" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S65" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T65" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U65" s="12"/>
-    </row>
-    <row r="66" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T65" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U65" s="12">
+        <v>0</v>
+      </c>
+      <c r="V65" s="13">
+        <v>2.83</v>
+      </c>
+      <c r="W65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -5253,7 +6432,7 @@
         <v>301258</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="E66" s="4">
         <v>-5.95</v>
@@ -5262,13 +6441,21 @@
         <v>34</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="H66" s="4">
+        <v>0.82</v>
+      </c>
+      <c r="I66" s="4">
+        <v>35.48</v>
+      </c>
+      <c r="J66" s="7">
+        <v>4.35</v>
+      </c>
+      <c r="K66" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L66" s="9"/>
       <c r="M66" s="4">
         <v>2</v>
       </c>
@@ -5281,21 +6468,29 @@
       <c r="P66" s="4">
         <v>-0.51</v>
       </c>
-      <c r="Q66" s="10" t="s">
-        <v>22</v>
+      <c r="Q66" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R66" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S66" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T66" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U66" s="12"/>
-    </row>
-    <row r="67" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U66" s="12">
+        <v>0</v>
+      </c>
+      <c r="V66" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="W66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -5306,7 +6501,7 @@
         <v>301306</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="E67" s="4">
         <v>-3.32</v>
@@ -5315,13 +6510,21 @@
         <v>51</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="H67" s="6"/>
-      <c r="I67" s="6"/>
-      <c r="J67" s="8"/>
-      <c r="K67" s="6"/>
-      <c r="L67" s="6"/>
+        <v>171</v>
+      </c>
+      <c r="H67" s="4">
+        <v>0.43</v>
+      </c>
+      <c r="I67" s="4">
+        <v>51.69</v>
+      </c>
+      <c r="J67" s="7">
+        <v>1.35</v>
+      </c>
+      <c r="K67" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L67" s="9"/>
       <c r="M67" s="4">
         <v>5</v>
       </c>
@@ -5334,21 +6537,29 @@
       <c r="P67" s="4">
         <v>-1.82</v>
       </c>
-      <c r="Q67" s="10" t="s">
-        <v>22</v>
+      <c r="Q67" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R67" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S67" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T67" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U67" s="12"/>
-    </row>
-    <row r="68" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U67" s="12">
+        <v>0</v>
+      </c>
+      <c r="V67" s="13">
+        <v>4.85</v>
+      </c>
+      <c r="W67" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -5359,7 +6570,7 @@
         <v>301312</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="E68" s="4">
         <v>-0.75</v>
@@ -5368,13 +6579,21 @@
         <v>40.8</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="H68" s="6"/>
-      <c r="I68" s="6"/>
-      <c r="J68" s="8"/>
-      <c r="K68" s="6"/>
-      <c r="L68" s="6"/>
+        <v>173</v>
+      </c>
+      <c r="H68" s="4">
+        <v>1.18</v>
+      </c>
+      <c r="I68" s="4">
+        <v>42.17</v>
+      </c>
+      <c r="J68" s="7">
+        <v>3.36</v>
+      </c>
+      <c r="K68" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L68" s="9"/>
       <c r="M68" s="4">
         <v>10</v>
       </c>
@@ -5387,21 +6606,29 @@
       <c r="P68" s="4">
         <v>-0.66</v>
       </c>
-      <c r="Q68" s="10" t="s">
-        <v>22</v>
+      <c r="Q68" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R68" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S68" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T68" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U68" s="12"/>
-    </row>
-    <row r="69" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U68" s="12">
+        <v>0</v>
+      </c>
+      <c r="V68" s="13">
+        <v>4.66</v>
+      </c>
+      <c r="W68" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -5412,7 +6639,7 @@
         <v>301345</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="E69" s="4">
         <v>1.59</v>
@@ -5421,13 +6648,21 @@
         <v>143.41</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="H69" s="6"/>
-      <c r="I69" s="6"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="6"/>
-      <c r="L69" s="6"/>
+        <v>176</v>
+      </c>
+      <c r="H69" s="4">
+        <v>-2.61</v>
+      </c>
+      <c r="I69" s="4">
+        <v>149.9</v>
+      </c>
+      <c r="J69" s="7">
+        <v>4.53</v>
+      </c>
+      <c r="K69" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="L69" s="9"/>
       <c r="M69" s="4">
         <v>8</v>
       </c>
@@ -5437,24 +6672,32 @@
       <c r="O69" s="4">
         <v>-30967690</v>
       </c>
-      <c r="P69" s="9">
+      <c r="P69" s="10">
         <v>0.76</v>
       </c>
-      <c r="Q69" s="10" t="s">
-        <v>22</v>
+      <c r="Q69" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R69" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S69" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T69" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U69" s="12"/>
-    </row>
-    <row r="70" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U69" s="12">
+        <v>0</v>
+      </c>
+      <c r="V69" s="13">
+        <v>5.32</v>
+      </c>
+      <c r="W69" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -5465,7 +6708,7 @@
         <v>301388</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="E70" s="4">
         <v>-10.48</v>
@@ -5474,13 +6717,21 @@
         <v>35.79</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="H70" s="6"/>
-      <c r="I70" s="6"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="6"/>
-      <c r="L70" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="H70" s="4">
+        <v>-1.9</v>
+      </c>
+      <c r="I70" s="4">
+        <v>37.3</v>
+      </c>
+      <c r="J70" s="7">
+        <v>4.22</v>
+      </c>
+      <c r="K70" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="L70" s="9"/>
       <c r="M70" s="4">
         <v>4</v>
       </c>
@@ -5493,21 +6744,29 @@
       <c r="P70" s="4">
         <v>-1.94</v>
       </c>
-      <c r="Q70" s="10" t="s">
-        <v>22</v>
+      <c r="Q70" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R70" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S70" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T70" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U70" s="12"/>
-    </row>
-    <row r="71" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U70" s="12">
+        <v>0</v>
+      </c>
+      <c r="V70" s="13">
+        <v>4.25</v>
+      </c>
+      <c r="W70" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -5518,7 +6777,7 @@
         <v>301389</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="E71" s="4">
         <v>-10.18</v>
@@ -5527,13 +6786,21 @@
         <v>34.14</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="H71" s="6"/>
-      <c r="I71" s="6"/>
-      <c r="J71" s="8"/>
-      <c r="K71" s="6"/>
-      <c r="L71" s="6"/>
+        <v>139</v>
+      </c>
+      <c r="H71" s="4">
+        <v>-2.31</v>
+      </c>
+      <c r="I71" s="4">
+        <v>34.88</v>
+      </c>
+      <c r="J71" s="7">
+        <v>2.17</v>
+      </c>
+      <c r="K71" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="L71" s="9"/>
       <c r="M71" s="4">
         <v>3</v>
       </c>
@@ -5546,21 +6813,29 @@
       <c r="P71" s="4">
         <v>-1.92</v>
       </c>
-      <c r="Q71" s="10" t="s">
-        <v>22</v>
+      <c r="Q71" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R71" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S71" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T71" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U71" s="12"/>
-    </row>
-    <row r="72" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U71" s="12">
+        <v>0</v>
+      </c>
+      <c r="V71" s="13">
+        <v>2.58</v>
+      </c>
+      <c r="W71" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -5571,7 +6846,7 @@
         <v>301421</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>138</v>
+        <v>181</v>
       </c>
       <c r="E72" s="4">
         <v>-1.61</v>
@@ -5580,13 +6855,21 @@
         <v>70.15</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="H72" s="6"/>
-      <c r="I72" s="6"/>
-      <c r="J72" s="8"/>
-      <c r="K72" s="6"/>
-      <c r="L72" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2.79</v>
+      </c>
+      <c r="I72" s="4">
+        <v>72.56</v>
+      </c>
+      <c r="J72" s="7">
+        <v>3.44</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="L72" s="9"/>
       <c r="M72" s="4">
         <v>14</v>
       </c>
@@ -5599,21 +6882,29 @@
       <c r="P72" s="4">
         <v>-0.5</v>
       </c>
-      <c r="Q72" s="10" t="s">
-        <v>22</v>
+      <c r="Q72" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R72" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S72" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T72" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U72" s="12"/>
-    </row>
-    <row r="73" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U72" s="12">
+        <v>0</v>
+      </c>
+      <c r="V72" s="13">
+        <v>2.31</v>
+      </c>
+      <c r="W72" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -5624,7 +6915,7 @@
         <v>301511</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="E73" s="4">
         <v>-1.9</v>
@@ -5633,13 +6924,21 @@
         <v>25.26</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="8"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
+        <v>150</v>
+      </c>
+      <c r="H73" s="4">
+        <v>-2.61</v>
+      </c>
+      <c r="I73" s="4">
+        <v>25.24</v>
+      </c>
+      <c r="J73" s="7">
+        <v>-0.08</v>
+      </c>
+      <c r="K73" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="L73" s="9"/>
       <c r="M73" s="4">
         <v>13</v>
       </c>
@@ -5652,21 +6951,29 @@
       <c r="P73" s="4">
         <v>-1.43</v>
       </c>
-      <c r="Q73" s="10" t="s">
-        <v>22</v>
+      <c r="Q73" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R73" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S73" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T73" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U73" s="12"/>
-    </row>
-    <row r="74" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U73" s="12">
+        <v>0</v>
+      </c>
+      <c r="V73" s="13">
+        <v>2.82</v>
+      </c>
+      <c r="W73" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -5677,7 +6984,7 @@
         <v>301526</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>141</v>
+        <v>186</v>
       </c>
       <c r="E74" s="4">
         <v>3</v>
@@ -5686,13 +6993,21 @@
         <v>5.5</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H74" s="6"/>
-      <c r="I74" s="6"/>
-      <c r="J74" s="8"/>
-      <c r="K74" s="6"/>
-      <c r="L74" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="H74" s="4">
+        <v>-9.09</v>
+      </c>
+      <c r="I74" s="4">
+        <v>5.48</v>
+      </c>
+      <c r="J74" s="7">
+        <v>-0.36</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="L74" s="9"/>
       <c r="M74" s="4">
         <v>3</v>
       </c>
@@ -5705,21 +7020,29 @@
       <c r="P74" s="4">
         <v>0.22</v>
       </c>
-      <c r="Q74" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="R74" s="13" t="s">
-        <v>25</v>
+      <c r="Q74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="R74" s="14" t="s">
+        <v>27</v>
       </c>
       <c r="S74" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T74" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U74" s="12"/>
-    </row>
-    <row r="75" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U74" s="12">
+        <v>0</v>
+      </c>
+      <c r="V74" s="13">
+        <v>2.22</v>
+      </c>
+      <c r="W74" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -5730,7 +7053,7 @@
         <v>688062</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="E75" s="4">
         <v>4.38</v>
@@ -5739,13 +7062,21 @@
         <v>31.73</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H75" s="6"/>
-      <c r="I75" s="6"/>
-      <c r="J75" s="8"/>
-      <c r="K75" s="6"/>
-      <c r="L75" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="H75" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I75" s="4">
+        <v>32.5</v>
+      </c>
+      <c r="J75" s="7">
+        <v>2.43</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L75" s="9"/>
       <c r="M75" s="4">
         <v>6</v>
       </c>
@@ -5755,24 +7086,32 @@
       <c r="O75" s="4">
         <v>3914216</v>
       </c>
-      <c r="P75" s="9">
+      <c r="P75" s="10">
         <v>0.48</v>
       </c>
-      <c r="Q75" s="10" t="s">
-        <v>22</v>
+      <c r="Q75" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R75" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S75" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T75" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U75" s="12"/>
-    </row>
-    <row r="76" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U75" s="12">
+        <v>0</v>
+      </c>
+      <c r="V75" s="13">
+        <v>4.84</v>
+      </c>
+      <c r="W75" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -5783,7 +7122,7 @@
         <v>688117</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>144</v>
+        <v>189</v>
       </c>
       <c r="E76" s="4">
         <v>-0.2</v>
@@ -5792,13 +7131,21 @@
         <v>34.44</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="J76" s="8"/>
-      <c r="K76" s="6"/>
-      <c r="L76" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="H76" s="4">
+        <v>1.89</v>
+      </c>
+      <c r="I76" s="4">
+        <v>35.8</v>
+      </c>
+      <c r="J76" s="7">
+        <v>3.95</v>
+      </c>
+      <c r="K76" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="L76" s="9"/>
       <c r="M76" s="4">
         <v>23</v>
       </c>
@@ -5811,21 +7158,29 @@
       <c r="P76" s="4">
         <v>0.06</v>
       </c>
-      <c r="Q76" s="10" t="s">
-        <v>22</v>
+      <c r="Q76" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R76" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S76" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T76" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U76" s="12"/>
-    </row>
-    <row r="77" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="U76" s="12">
+        <v>0</v>
+      </c>
+      <c r="V76" s="13">
+        <v>1.4</v>
+      </c>
+      <c r="W76" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -5836,7 +7191,7 @@
         <v>688202</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>145</v>
+        <v>190</v>
       </c>
       <c r="E77" s="4">
         <v>-2.04</v>
@@ -5845,13 +7200,21 @@
         <v>50.3</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="H77" s="6"/>
-      <c r="I77" s="6"/>
-      <c r="J77" s="8"/>
-      <c r="K77" s="6"/>
-      <c r="L77" s="6"/>
+        <v>167</v>
+      </c>
+      <c r="H77" s="4">
+        <v>7.22</v>
+      </c>
+      <c r="I77" s="4">
+        <v>55.99</v>
+      </c>
+      <c r="J77" s="7">
+        <v>11.31</v>
+      </c>
+      <c r="K77" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="L77" s="9"/>
       <c r="M77" s="4">
         <v>3</v>
       </c>
@@ -5864,21 +7227,29 @@
       <c r="P77" s="4">
         <v>-0.69</v>
       </c>
-      <c r="Q77" s="10" t="s">
-        <v>22</v>
+      <c r="Q77" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R77" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S77" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T77" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U77" s="12"/>
-    </row>
-    <row r="78" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T77" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U77" s="12">
+        <v>0</v>
+      </c>
+      <c r="V77" s="13">
+        <v>1.91</v>
+      </c>
+      <c r="W77" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -5889,7 +7260,7 @@
         <v>688221</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>146</v>
+        <v>191</v>
       </c>
       <c r="E78" s="4">
         <v>11.48</v>
@@ -5898,13 +7269,21 @@
         <v>16.12</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="6"/>
-      <c r="L78" s="6"/>
+        <v>188</v>
+      </c>
+      <c r="H78" s="4">
+        <v>12.66</v>
+      </c>
+      <c r="I78" s="4">
+        <v>18.49</v>
+      </c>
+      <c r="J78" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="K78" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="L78" s="9"/>
       <c r="M78" s="4">
         <v>4</v>
       </c>
@@ -5917,21 +7296,29 @@
       <c r="P78" s="4">
         <v>-0.05</v>
       </c>
-      <c r="Q78" s="10" t="s">
-        <v>22</v>
+      <c r="Q78" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R78" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S78" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T78" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U78" s="12"/>
-    </row>
-    <row r="79" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="T78" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U78" s="12">
+        <v>0</v>
+      </c>
+      <c r="V78" s="13">
+        <v>1.73</v>
+      </c>
+      <c r="W78" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -5942,7 +7329,7 @@
         <v>688291</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>147</v>
+        <v>193</v>
       </c>
       <c r="E79" s="4">
         <v>-9.41</v>
@@ -5951,13 +7338,21 @@
         <v>34.85</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H79" s="6"/>
-      <c r="I79" s="6"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="6"/>
-      <c r="L79" s="6"/>
+        <v>62</v>
+      </c>
+      <c r="H79" s="4">
+        <v>-0.26</v>
+      </c>
+      <c r="I79" s="4">
+        <v>35.46</v>
+      </c>
+      <c r="J79" s="7">
+        <v>1.75</v>
+      </c>
+      <c r="K79" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="L79" s="9"/>
       <c r="M79" s="4">
         <v>3</v>
       </c>
@@ -5970,21 +7365,29 @@
       <c r="P79" s="4">
         <v>-1.98</v>
       </c>
-      <c r="Q79" s="10" t="s">
-        <v>22</v>
+      <c r="Q79" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R79" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S79" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T79" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="U79" s="12"/>
-    </row>
-    <row r="80" spans="1:20">
+        <v>23</v>
+      </c>
+      <c r="U79" s="12">
+        <v>0</v>
+      </c>
+      <c r="V79" s="13">
+        <v>4.53</v>
+      </c>
+      <c r="W79" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -5995,7 +7398,7 @@
         <v>688321</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="E80" s="4">
         <v>4.38</v>
@@ -6006,11 +7409,19 @@
       <c r="G80" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H80" s="6"/>
-      <c r="I80" s="6"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="6"/>
-      <c r="L80" s="6"/>
+      <c r="H80" s="4">
+        <v>3.46</v>
+      </c>
+      <c r="I80" s="4">
+        <v>34.8</v>
+      </c>
+      <c r="J80" s="7">
+        <v>6.52</v>
+      </c>
+      <c r="K80" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L80" s="9"/>
       <c r="M80" s="4">
         <v>8</v>
       </c>
@@ -6023,20 +7434,29 @@
       <c r="P80" s="4">
         <v>-0.03</v>
       </c>
-      <c r="Q80" s="10" t="s">
-        <v>22</v>
+      <c r="Q80" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R80" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S80" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="T80" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="81" spans="1:20">
+        <v>23</v>
+      </c>
+      <c r="T80" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="U80" s="12">
+        <v>0</v>
+      </c>
+      <c r="V80" s="13">
+        <v>4.41</v>
+      </c>
+      <c r="W80" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -6047,7 +7467,7 @@
         <v>688499</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="E81" s="4">
         <v>0.15</v>
@@ -6056,13 +7476,21 @@
         <v>39.46</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="6"/>
-      <c r="L81" s="6"/>
+        <v>197</v>
+      </c>
+      <c r="H81" s="4">
+        <v>-0.46</v>
+      </c>
+      <c r="I81" s="4">
+        <v>40</v>
+      </c>
+      <c r="J81" s="7">
+        <v>1.37</v>
+      </c>
+      <c r="K81" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="L81" s="9"/>
       <c r="M81" s="4">
         <v>18</v>
       </c>
@@ -6075,20 +7503,29 @@
       <c r="P81" s="4">
         <v>-0.32</v>
       </c>
-      <c r="Q81" s="10" t="s">
-        <v>22</v>
+      <c r="Q81" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R81" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S81" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T81" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="82" spans="1:20">
+        <v>23</v>
+      </c>
+      <c r="U81" s="12">
+        <v>0</v>
+      </c>
+      <c r="V81" s="13">
+        <v>3.42</v>
+      </c>
+      <c r="W81" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -6099,7 +7536,7 @@
         <v>688553</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="E82" s="4">
         <v>1.55</v>
@@ -6110,11 +7547,19 @@
       <c r="G82" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="6"/>
-      <c r="L82" s="6"/>
+      <c r="H82" s="4">
+        <v>-1.28</v>
+      </c>
+      <c r="I82" s="4">
+        <v>20.95</v>
+      </c>
+      <c r="J82" s="7">
+        <v>3.05</v>
+      </c>
+      <c r="K82" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L82" s="9"/>
       <c r="M82" s="4">
         <v>5</v>
       </c>
@@ -6124,23 +7569,32 @@
       <c r="O82" s="4">
         <v>27103563</v>
       </c>
-      <c r="P82" s="9">
+      <c r="P82" s="10">
         <v>0.43</v>
       </c>
-      <c r="Q82" s="10" t="s">
-        <v>22</v>
+      <c r="Q82" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R82" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S82" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T82" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="83" spans="1:20">
+        <v>23</v>
+      </c>
+      <c r="U82" s="12">
+        <v>0</v>
+      </c>
+      <c r="V82" s="13">
+        <v>0.74</v>
+      </c>
+      <c r="W82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -6151,7 +7605,7 @@
         <v>688717</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>152</v>
+        <v>200</v>
       </c>
       <c r="E83" s="4">
         <v>2.67</v>
@@ -6160,13 +7614,21 @@
         <v>66.61</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="6"/>
-      <c r="L83" s="6"/>
+        <v>201</v>
+      </c>
+      <c r="H83" s="4">
+        <v>-3.92</v>
+      </c>
+      <c r="I83" s="4">
+        <v>66.66</v>
+      </c>
+      <c r="J83" s="7">
+        <v>0.08</v>
+      </c>
+      <c r="K83" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="L83" s="9"/>
       <c r="M83" s="4">
         <v>3</v>
       </c>
@@ -6179,20 +7641,29 @@
       <c r="P83" s="4">
         <v>-0.52</v>
       </c>
-      <c r="Q83" s="10" t="s">
-        <v>22</v>
+      <c r="Q83" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R83" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S83" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T83" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="1:20">
+        <v>23</v>
+      </c>
+      <c r="U83" s="12">
+        <v>0</v>
+      </c>
+      <c r="V83" s="13">
+        <v>1.96</v>
+      </c>
+      <c r="W83" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -6203,7 +7674,7 @@
         <v>688799</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="E84" s="4">
         <v>14.85</v>
@@ -6214,11 +7685,19 @@
       <c r="G84" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="6"/>
-      <c r="L84" s="6"/>
+      <c r="H84" s="17">
+        <v>0</v>
+      </c>
+      <c r="I84" s="4">
+        <v>58.4</v>
+      </c>
+      <c r="J84" s="7">
+        <v>0.71</v>
+      </c>
+      <c r="K84" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L84" s="9"/>
       <c r="M84" s="4">
         <v>2</v>
       </c>
@@ -6231,138 +7710,147 @@
       <c r="P84" s="4">
         <v>-0.35</v>
       </c>
-      <c r="Q84" s="10" t="s">
-        <v>22</v>
+      <c r="Q84" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="R84" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S84" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="T84" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="U84" s="12">
+        <v>0</v>
+      </c>
+      <c r="V84" s="13">
+        <v>5.25</v>
+      </c>
+      <c r="W84" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="14"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="19"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="21"/>
-      <c r="Q85" s="20"/>
-      <c r="R85" s="22"/>
+      <c r="A85" s="18"/>
+      <c r="B85" s="18"/>
+      <c r="C85" s="19"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="19"/>
+      <c r="G85" s="20"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="18"/>
+      <c r="J85" s="23"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="19"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="26"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="17"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="16"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="19"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="15"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="15"/>
-      <c r="P86" s="21"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="22"/>
+      <c r="A86" s="21"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="19"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="19"/>
+      <c r="G86" s="20"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="18"/>
+      <c r="J86" s="23"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="19"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="19"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="26"/>
+      <c r="R86" s="26"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="17"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="16"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="19"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="15"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="15"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="20"/>
-      <c r="R87" s="23"/>
+      <c r="A87" s="21"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="19"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="19"/>
+      <c r="F87" s="19"/>
+      <c r="G87" s="20"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="18"/>
+      <c r="J87" s="23"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="19"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="19"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="27"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="17"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="19"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="15"/>
-      <c r="N88" s="15"/>
-      <c r="O88" s="15"/>
-      <c r="P88" s="15"/>
-      <c r="Q88" s="20"/>
-      <c r="R88" s="23"/>
+      <c r="A88" s="21"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="19"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="19"/>
+      <c r="F88" s="19"/>
+      <c r="G88" s="20"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="18"/>
+      <c r="J88" s="23"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="19"/>
+      <c r="N88" s="19"/>
+      <c r="O88" s="19"/>
+      <c r="P88" s="19"/>
+      <c r="Q88" s="24"/>
+      <c r="R88" s="27"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="17"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="19"/>
-      <c r="K89" s="14"/>
-      <c r="L89" s="14"/>
-      <c r="M89" s="15"/>
-      <c r="N89" s="15"/>
-      <c r="O89" s="15"/>
-      <c r="P89" s="15"/>
-      <c r="Q89" s="20"/>
-      <c r="R89" s="23"/>
+      <c r="A89" s="21"/>
+      <c r="B89" s="22"/>
+      <c r="C89" s="19"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="19"/>
+      <c r="F89" s="19"/>
+      <c r="G89" s="20"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="18"/>
+      <c r="J89" s="23"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="19"/>
+      <c r="N89" s="19"/>
+      <c r="O89" s="19"/>
+      <c r="P89" s="19"/>
+      <c r="Q89" s="24"/>
+      <c r="R89" s="27"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="17"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="19"/>
-      <c r="K90" s="14"/>
-      <c r="L90" s="14"/>
-      <c r="M90" s="15"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="15"/>
-      <c r="P90" s="21"/>
-      <c r="Q90" s="20"/>
-      <c r="R90" s="22"/>
+      <c r="A90" s="21"/>
+      <c r="B90" s="22"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="20"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="18"/>
+      <c r="J90" s="23"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dataanalysis/alert/0710.xlsx
+++ b/dataanalysis/alert/0710.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="205">
   <si>
     <t>序号</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>最高价</t>
+  </si>
+  <si>
+    <t>AI预测</t>
+  </si>
+  <si>
+    <t>AI幅度</t>
   </si>
   <si>
     <t>北陆药业</t>
@@ -1324,7 +1330,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1358,6 +1364,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1377,35 +1389,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1935,7 +1920,7 @@
   <dimension ref="A1:W90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W84"/>
+      <selection activeCell="U1" sqref="U1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
@@ -1943,7 +1928,7 @@
     <col min="14" max="15" width="11.5045045045045"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.85" spans="1:20">
+    <row r="1" ht="24.85" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2003,6 +1988,12 @@
       </c>
       <c r="T1" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -2016,7 +2007,7 @@
         <v>300016</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E2" s="4">
         <v>-4.93</v>
@@ -2025,7 +2016,7 @@
         <v>9.26</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H2" s="4">
         <v>-0.22</v>
@@ -2037,7 +2028,7 @@
         <v>2.16</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L2" s="9"/>
       <c r="M2" s="4">
@@ -2053,21 +2044,21 @@
         <v>-0.97</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" s="12">
-        <v>0</v>
-      </c>
-      <c r="V2" s="13">
+        <v>25</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="14">
+        <v>0</v>
+      </c>
+      <c r="V2" s="15">
         <v>6.26</v>
       </c>
       <c r="W2" s="2">
@@ -2085,7 +2076,7 @@
         <v>300019</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3" s="4">
         <v>18.29</v>
@@ -2094,7 +2085,7 @@
         <v>24.32</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4">
         <v>-7.61</v>
@@ -2106,7 +2097,7 @@
         <v>-2.55</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="4">
@@ -2121,25 +2112,25 @@
       <c r="P3" s="10">
         <v>2.79</v>
       </c>
-      <c r="Q3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U3" s="15">
+      <c r="Q3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U3" s="17">
         <v>1</v>
       </c>
-      <c r="V3" s="13">
+      <c r="V3" s="15">
         <v>7.32</v>
       </c>
-      <c r="W3" s="16">
+      <c r="W3" s="18">
         <v>1</v>
       </c>
     </row>
@@ -2154,7 +2145,7 @@
         <v>300030</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" s="4">
         <v>0.37</v>
@@ -2163,7 +2154,7 @@
         <v>8.19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" s="4">
         <v>-4.88</v>
@@ -2175,7 +2166,7 @@
         <v>-0.73</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L4" s="9"/>
       <c r="M4" s="4">
@@ -2191,21 +2182,21 @@
         <v>0.05</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U4" s="12">
-        <v>0</v>
-      </c>
-      <c r="V4" s="13">
+        <v>25</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U4" s="14">
+        <v>0</v>
+      </c>
+      <c r="V4" s="15">
         <v>3.36</v>
       </c>
       <c r="W4" s="2">
@@ -2223,7 +2214,7 @@
         <v>300043</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4">
         <v>1.86</v>
@@ -2232,7 +2223,7 @@
         <v>4.92</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H5" s="4">
         <v>-0.81</v>
@@ -2244,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L5" s="9"/>
       <c r="M5" s="4">
@@ -2260,21 +2251,21 @@
         <v>0.51</v>
       </c>
       <c r="Q5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U5" s="15">
+        <v>25</v>
+      </c>
+      <c r="R5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T5" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U5" s="17">
         <v>1</v>
       </c>
-      <c r="V5" s="13">
+      <c r="V5" s="15">
         <v>5.03</v>
       </c>
       <c r="W5" s="2">
@@ -2292,7 +2283,7 @@
         <v>300127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4">
         <v>1.71</v>
@@ -2301,7 +2292,7 @@
         <v>29.75</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4">
         <v>3.83</v>
@@ -2313,7 +2304,7 @@
         <v>8.57</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L6" s="9"/>
       <c r="M6" s="4">
@@ -2329,21 +2320,21 @@
         <v>0.46</v>
       </c>
       <c r="Q6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T6" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U6" s="12">
-        <v>0</v>
-      </c>
-      <c r="V6" s="13">
+        <v>25</v>
+      </c>
+      <c r="R6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T6" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U6" s="14">
+        <v>0</v>
+      </c>
+      <c r="V6" s="15">
         <v>1.28</v>
       </c>
       <c r="W6" s="2">
@@ -2361,7 +2352,7 @@
         <v>300130</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4">
         <v>-5.08</v>
@@ -2370,7 +2361,7 @@
         <v>34.2</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H7" s="4">
         <v>-1.05</v>
@@ -2382,7 +2373,7 @@
         <v>3.45</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L7" s="9"/>
       <c r="M7" s="4">
@@ -2398,21 +2389,21 @@
         <v>-1.76</v>
       </c>
       <c r="Q7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U7" s="12">
-        <v>0</v>
-      </c>
-      <c r="V7" s="13">
+        <v>25</v>
+      </c>
+      <c r="R7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U7" s="14">
+        <v>0</v>
+      </c>
+      <c r="V7" s="15">
         <v>4.45</v>
       </c>
       <c r="W7" s="2">
@@ -2430,7 +2421,7 @@
         <v>300160</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E8" s="4">
         <v>-1.42</v>
@@ -2439,7 +2430,7 @@
         <v>6.27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H8" s="4">
         <v>-1.28</v>
@@ -2451,7 +2442,7 @@
         <v>2.39</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="4">
@@ -2467,21 +2458,21 @@
         <v>0.32</v>
       </c>
       <c r="Q8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U8" s="12">
-        <v>0</v>
-      </c>
-      <c r="V8" s="13">
+        <v>25</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U8" s="14">
+        <v>0</v>
+      </c>
+      <c r="V8" s="15">
         <v>6.08</v>
       </c>
       <c r="W8" s="2">
@@ -2499,7 +2490,7 @@
         <v>300180</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E9" s="4">
         <v>-2.86</v>
@@ -2508,7 +2499,7 @@
         <v>9.52</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4">
         <v>3.05</v>
@@ -2520,7 +2511,7 @@
         <v>9.45</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L9" s="9"/>
       <c r="M9" s="4">
@@ -2536,21 +2527,21 @@
         <v>-1.26</v>
       </c>
       <c r="Q9" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="12">
-        <v>0</v>
-      </c>
-      <c r="V9" s="13">
+        <v>25</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T9" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="14">
+        <v>0</v>
+      </c>
+      <c r="V9" s="15">
         <v>2.92</v>
       </c>
       <c r="W9" s="2">
@@ -2568,7 +2559,7 @@
         <v>300196</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E10" s="4">
         <v>-1.83</v>
@@ -2577,7 +2568,7 @@
         <v>15</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="4">
         <v>-4.07</v>
@@ -2589,7 +2580,7 @@
         <v>-0.47</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="L10" s="9"/>
       <c r="M10" s="4">
@@ -2605,21 +2596,21 @@
         <v>-0.68</v>
       </c>
       <c r="Q10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U10" s="12">
-        <v>0</v>
-      </c>
-      <c r="V10" s="13">
+        <v>25</v>
+      </c>
+      <c r="R10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U10" s="14">
+        <v>0</v>
+      </c>
+      <c r="V10" s="15">
         <v>5</v>
       </c>
       <c r="W10" s="2">
@@ -2637,7 +2628,7 @@
         <v>300199</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" s="4">
         <v>-2.77</v>
@@ -2646,7 +2637,7 @@
         <v>18.24</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H11" s="4">
         <v>1.48</v>
@@ -2658,7 +2649,7 @@
         <v>3.67</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L11" s="9"/>
       <c r="M11" s="4">
@@ -2674,21 +2665,21 @@
         <v>-0.7</v>
       </c>
       <c r="Q11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U11" s="12">
-        <v>0</v>
-      </c>
-      <c r="V11" s="13">
+        <v>25</v>
+      </c>
+      <c r="R11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U11" s="14">
+        <v>0</v>
+      </c>
+      <c r="V11" s="15">
         <v>2.58</v>
       </c>
       <c r="W11" s="2">
@@ -2706,7 +2697,7 @@
         <v>300246</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E12" s="4">
         <v>-1.08</v>
@@ -2715,7 +2706,7 @@
         <v>10.07</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H12" s="4">
         <v>-7.05</v>
@@ -2727,7 +2718,7 @@
         <v>-0.99</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L12" s="9"/>
       <c r="M12" s="4">
@@ -2742,22 +2733,22 @@
       <c r="P12" s="4">
         <v>-0.36</v>
       </c>
-      <c r="Q12" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U12" s="12">
-        <v>0</v>
-      </c>
-      <c r="V12" s="13">
+      <c r="Q12" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U12" s="14">
+        <v>0</v>
+      </c>
+      <c r="V12" s="15">
         <v>4.11</v>
       </c>
       <c r="W12" s="2">
@@ -2775,7 +2766,7 @@
         <v>300254</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="4">
         <v>13.06</v>
@@ -2784,7 +2775,7 @@
         <v>11.6</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H13" s="4">
         <v>-3.45</v>
@@ -2796,7 +2787,7 @@
         <v>0.6</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L13" s="9"/>
       <c r="M13" s="4">
@@ -2812,21 +2803,21 @@
         <v>4.95</v>
       </c>
       <c r="Q13" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T13" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U13" s="12">
-        <v>0</v>
-      </c>
-      <c r="V13" s="13">
+        <v>25</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U13" s="14">
+        <v>0</v>
+      </c>
+      <c r="V13" s="15">
         <v>1.32</v>
       </c>
       <c r="W13" s="2">
@@ -2844,7 +2835,7 @@
         <v>300265</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E14" s="4">
         <v>2.36</v>
@@ -2853,7 +2844,7 @@
         <v>10.39</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H14" s="4">
         <v>-0.67</v>
@@ -2865,7 +2856,7 @@
         <v>2.02</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L14" s="9"/>
       <c r="M14" s="4">
@@ -2881,21 +2872,21 @@
         <v>-0.09</v>
       </c>
       <c r="Q14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T14" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U14" s="15">
+        <v>25</v>
+      </c>
+      <c r="R14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U14" s="17">
         <v>1</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="15">
         <v>7.95</v>
       </c>
       <c r="W14" s="2">
@@ -2913,7 +2904,7 @@
         <v>300269</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E15" s="4">
         <v>-4.2</v>
@@ -2922,7 +2913,7 @@
         <v>5.48</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H15" s="4">
         <v>-1.09</v>
@@ -2934,7 +2925,7 @@
         <v>1.28</v>
       </c>
       <c r="K15" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L15" s="9"/>
       <c r="M15" s="4">
@@ -2950,21 +2941,21 @@
         <v>-0.58</v>
       </c>
       <c r="Q15" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T15" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U15" s="12">
-        <v>0</v>
-      </c>
-      <c r="V15" s="13">
+        <v>25</v>
+      </c>
+      <c r="R15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U15" s="14">
+        <v>0</v>
+      </c>
+      <c r="V15" s="15">
         <v>-0.1</v>
       </c>
       <c r="W15" s="2">
@@ -2982,7 +2973,7 @@
         <v>300335</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4">
         <v>-7.56</v>
@@ -2991,7 +2982,7 @@
         <v>6.24</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H16" s="4">
         <v>0.16</v>
@@ -3003,7 +2994,7 @@
         <v>0.48</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L16" s="9"/>
       <c r="M16" s="4">
@@ -3019,21 +3010,21 @@
         <v>-1.58</v>
       </c>
       <c r="Q16" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T16" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U16" s="12">
-        <v>0</v>
-      </c>
-      <c r="V16" s="13">
+        <v>25</v>
+      </c>
+      <c r="R16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U16" s="14">
+        <v>0</v>
+      </c>
+      <c r="V16" s="15">
         <v>4.07</v>
       </c>
       <c r="W16" s="2">
@@ -3051,7 +3042,7 @@
         <v>300348</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17" s="4">
         <v>0.78</v>
@@ -3060,7 +3051,7 @@
         <v>19.5</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H17" s="4">
         <v>7.03</v>
@@ -3072,7 +3063,7 @@
         <v>7.69</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L17" s="9"/>
       <c r="M17" s="4">
@@ -3088,21 +3079,21 @@
         <v>-0.74</v>
       </c>
       <c r="Q17" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S17" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T17" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U17" s="12">
-        <v>0</v>
-      </c>
-      <c r="V17" s="13">
+        <v>25</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S17" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T17" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U17" s="14">
+        <v>0</v>
+      </c>
+      <c r="V17" s="15">
         <v>1.88</v>
       </c>
       <c r="W17" s="2">
@@ -3120,7 +3111,7 @@
         <v>300436</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4">
         <v>-0.89</v>
@@ -3129,7 +3120,7 @@
         <v>57.8</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H18" s="4">
         <v>7.27</v>
@@ -3141,7 +3132,7 @@
         <v>12.79</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L18" s="9"/>
       <c r="M18" s="4">
@@ -3157,21 +3148,21 @@
         <v>0.1</v>
       </c>
       <c r="Q18" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T18" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U18" s="12">
-        <v>0</v>
-      </c>
-      <c r="V18" s="13">
+        <v>25</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U18" s="14">
+        <v>0</v>
+      </c>
+      <c r="V18" s="15">
         <v>0.22</v>
       </c>
       <c r="W18" s="2">
@@ -3189,7 +3180,7 @@
         <v>300468</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E19" s="4">
         <v>-8.46</v>
@@ -3198,7 +3189,7 @@
         <v>44.14</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H19" s="4">
         <v>2.15</v>
@@ -3210,7 +3201,7 @@
         <v>5.71</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L19" s="9"/>
       <c r="M19" s="4">
@@ -3225,22 +3216,22 @@
       <c r="P19" s="4">
         <v>-2.3</v>
       </c>
-      <c r="Q19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T19" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U19" s="12">
-        <v>0</v>
-      </c>
-      <c r="V19" s="13">
+      <c r="Q19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T19" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="14">
+        <v>0</v>
+      </c>
+      <c r="V19" s="15">
         <v>12.36</v>
       </c>
       <c r="W19" s="2">
@@ -3258,7 +3249,7 @@
         <v>300471</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E20" s="4">
         <v>15.72</v>
@@ -3267,7 +3258,7 @@
         <v>12.44</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H20" s="4">
         <v>3.14</v>
@@ -3279,7 +3270,7 @@
         <v>6.03</v>
       </c>
       <c r="K20" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L20" s="9"/>
       <c r="M20" s="4">
@@ -3295,21 +3286,21 @@
         <v>3.3</v>
       </c>
       <c r="Q20" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S20" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U20" s="12">
-        <v>0</v>
-      </c>
-      <c r="V20" s="13">
+        <v>25</v>
+      </c>
+      <c r="R20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T20" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U20" s="14">
+        <v>0</v>
+      </c>
+      <c r="V20" s="15">
         <v>5.38</v>
       </c>
       <c r="W20" s="2">
@@ -3327,7 +3318,7 @@
         <v>300485</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E21" s="4">
         <v>-2.99</v>
@@ -3336,7 +3327,7 @@
         <v>13.94</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H21" s="4">
         <v>-2.37</v>
@@ -3348,7 +3339,7 @@
         <v>2.08</v>
       </c>
       <c r="K21" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L21" s="9"/>
       <c r="M21" s="4">
@@ -3364,21 +3355,21 @@
         <v>-0.36</v>
       </c>
       <c r="Q21" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T21" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U21" s="12">
-        <v>0</v>
-      </c>
-      <c r="V21" s="13">
+        <v>25</v>
+      </c>
+      <c r="R21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" s="14">
+        <v>0</v>
+      </c>
+      <c r="V21" s="15">
         <v>2.23</v>
       </c>
       <c r="W21" s="2">
@@ -3396,7 +3387,7 @@
         <v>300505</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4">
         <v>0.5</v>
@@ -3405,7 +3396,7 @@
         <v>19.95</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H22" s="4">
         <v>0.15</v>
@@ -3417,7 +3408,7 @@
         <v>0.95</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L22" s="9"/>
       <c r="M22" s="4">
@@ -3433,21 +3424,21 @@
         <v>0.45</v>
       </c>
       <c r="Q22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R22" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T22" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U22" s="12">
-        <v>0</v>
-      </c>
-      <c r="V22" s="13">
+        <v>25</v>
+      </c>
+      <c r="R22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U22" s="14">
+        <v>0</v>
+      </c>
+      <c r="V22" s="15">
         <v>4.3</v>
       </c>
       <c r="W22" s="2">
@@ -3465,7 +3456,7 @@
         <v>300527</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E23" s="4">
         <v>1.56</v>
@@ -3474,7 +3465,7 @@
         <v>11.1</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H23" s="4">
         <v>2.25</v>
@@ -3486,7 +3477,7 @@
         <v>5.77</v>
       </c>
       <c r="K23" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="L23" s="9"/>
       <c r="M23" s="4">
@@ -3502,21 +3493,21 @@
         <v>0.15</v>
       </c>
       <c r="Q23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T23" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U23" s="12">
-        <v>0</v>
-      </c>
-      <c r="V23" s="13">
+        <v>25</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T23" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U23" s="14">
+        <v>0</v>
+      </c>
+      <c r="V23" s="15">
         <v>2.45</v>
       </c>
       <c r="W23" s="2">
@@ -3534,7 +3525,7 @@
         <v>300531</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E24" s="4">
         <v>-2.43</v>
@@ -3543,7 +3534,7 @@
         <v>21.29</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H24" s="4">
         <v>0.7</v>
@@ -3555,7 +3546,7 @@
         <v>3.01</v>
       </c>
       <c r="K24" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L24" s="9"/>
       <c r="M24" s="4">
@@ -3571,21 +3562,21 @@
         <v>-0.64</v>
       </c>
       <c r="Q24" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T24" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U24" s="12">
-        <v>0</v>
-      </c>
-      <c r="V24" s="13">
+        <v>25</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U24" s="14">
+        <v>0</v>
+      </c>
+      <c r="V24" s="15">
         <v>4.37</v>
       </c>
       <c r="W24" s="2">
@@ -3603,7 +3594,7 @@
         <v>300533</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E25" s="4">
         <v>-2.01</v>
@@ -3612,7 +3603,7 @@
         <v>38.6</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H25" s="4">
         <v>-2.72</v>
@@ -3624,7 +3615,7 @@
         <v>1.01</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L25" s="9"/>
       <c r="M25" s="4">
@@ -3640,21 +3631,21 @@
         <v>-0.98</v>
       </c>
       <c r="Q25" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T25" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U25" s="12">
-        <v>0</v>
-      </c>
-      <c r="V25" s="13">
+        <v>25</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U25" s="14">
+        <v>0</v>
+      </c>
+      <c r="V25" s="15">
         <v>3.05</v>
       </c>
       <c r="W25" s="2">
@@ -3672,7 +3663,7 @@
         <v>300537</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E26" s="4">
         <v>1.03</v>
@@ -3681,7 +3672,7 @@
         <v>29.3</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H26" s="4">
         <v>-4.51</v>
@@ -3693,7 +3684,7 @@
         <v>0.03</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L26" s="9"/>
       <c r="M26" s="4">
@@ -3709,21 +3700,21 @@
         <v>-2.11</v>
       </c>
       <c r="Q26" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U26" s="15">
+        <v>25</v>
+      </c>
+      <c r="R26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U26" s="17">
         <v>1</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="15">
         <v>2.83</v>
       </c>
       <c r="W26" s="2">
@@ -3741,7 +3732,7 @@
         <v>300554</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E27" s="4">
         <v>-3.79</v>
@@ -3750,7 +3741,7 @@
         <v>24.65</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H27" s="4">
         <v>-1.26</v>
@@ -3762,7 +3753,7 @@
         <v>0.73</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L27" s="9"/>
       <c r="M27" s="4">
@@ -3778,21 +3769,21 @@
         <v>-0.4</v>
       </c>
       <c r="Q27" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U27" s="12">
-        <v>0</v>
-      </c>
-      <c r="V27" s="13">
+        <v>25</v>
+      </c>
+      <c r="R27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U27" s="14">
+        <v>0</v>
+      </c>
+      <c r="V27" s="15">
         <v>1.42</v>
       </c>
       <c r="W27" s="2">
@@ -3810,7 +3801,7 @@
         <v>300581</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E28" s="4">
         <v>-6.58</v>
@@ -3819,7 +3810,7 @@
         <v>19.59</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H28" s="4">
         <v>3.93</v>
@@ -3831,7 +3822,7 @@
         <v>6.18</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L28" s="9"/>
       <c r="M28" s="4">
@@ -3847,21 +3838,21 @@
         <v>-1.41</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T28" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U28" s="12">
-        <v>0</v>
-      </c>
-      <c r="V28" s="13">
+        <v>25</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T28" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U28" s="14">
+        <v>0</v>
+      </c>
+      <c r="V28" s="15">
         <v>0.87</v>
       </c>
       <c r="W28" s="2">
@@ -3879,7 +3870,7 @@
         <v>300591</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E29" s="4">
         <v>-7.39</v>
@@ -3888,7 +3879,7 @@
         <v>11.9</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H29" s="4">
         <v>-5.13</v>
@@ -3900,7 +3891,7 @@
         <v>0.76</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L29" s="9"/>
       <c r="M29" s="4">
@@ -3916,21 +3907,21 @@
         <v>-0.99</v>
       </c>
       <c r="Q29" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="12">
-        <v>0</v>
-      </c>
-      <c r="V29" s="13">
+        <v>25</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U29" s="14">
+        <v>0</v>
+      </c>
+      <c r="V29" s="15">
         <v>2.66</v>
       </c>
       <c r="W29" s="2">
@@ -3948,7 +3939,7 @@
         <v>300600</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E30" s="4">
         <v>-6.13</v>
@@ -3957,7 +3948,7 @@
         <v>13.94</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H30" s="4">
         <v>20.01</v>
@@ -3969,7 +3960,7 @@
         <v>20.01</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L30" s="9"/>
       <c r="M30" s="4">
@@ -3985,21 +3976,21 @@
         <v>-0.73</v>
       </c>
       <c r="Q30" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T30" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U30" s="12">
-        <v>0</v>
-      </c>
-      <c r="V30" s="13">
+        <v>25</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T30" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U30" s="14">
+        <v>0</v>
+      </c>
+      <c r="V30" s="15">
         <v>2.34</v>
       </c>
       <c r="W30" s="2">
@@ -4017,7 +4008,7 @@
         <v>300609</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E31" s="4">
         <v>-2.26</v>
@@ -4026,7 +4017,7 @@
         <v>34.19</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H31" s="4">
         <v>3.54</v>
@@ -4038,7 +4029,7 @@
         <v>3.54</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L31" s="9"/>
       <c r="M31" s="4">
@@ -4054,21 +4045,21 @@
         <v>-0.62</v>
       </c>
       <c r="Q31" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T31" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U31" s="12">
-        <v>0</v>
-      </c>
-      <c r="V31" s="13">
+        <v>25</v>
+      </c>
+      <c r="R31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" s="14">
+        <v>0</v>
+      </c>
+      <c r="V31" s="15">
         <v>1.81</v>
       </c>
       <c r="W31" s="2">
@@ -4086,7 +4077,7 @@
         <v>300645</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E32" s="4">
         <v>-3.64</v>
@@ -4095,7 +4086,7 @@
         <v>20.37</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H32" s="4">
         <v>1.18</v>
@@ -4107,7 +4098,7 @@
         <v>2.9</v>
       </c>
       <c r="K32" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L32" s="9"/>
       <c r="M32" s="4">
@@ -4123,21 +4114,21 @@
         <v>0.05</v>
       </c>
       <c r="Q32" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U32" s="12">
-        <v>0</v>
-      </c>
-      <c r="V32" s="13">
+        <v>25</v>
+      </c>
+      <c r="R32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U32" s="14">
+        <v>0</v>
+      </c>
+      <c r="V32" s="15">
         <v>0.58</v>
       </c>
       <c r="W32" s="2">
@@ -4155,7 +4146,7 @@
         <v>300649</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E33" s="4">
         <v>-8.45</v>
@@ -4164,7 +4155,7 @@
         <v>20.15</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H33" s="4">
         <v>-3.23</v>
@@ -4176,7 +4167,7 @@
         <v>-0.25</v>
       </c>
       <c r="K33" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L33" s="9"/>
       <c r="M33" s="4">
@@ -4192,21 +4183,21 @@
         <v>-0.63</v>
       </c>
       <c r="Q33" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T33" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U33" s="12">
-        <v>0</v>
-      </c>
-      <c r="V33" s="13">
+        <v>25</v>
+      </c>
+      <c r="R33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U33" s="14">
+        <v>0</v>
+      </c>
+      <c r="V33" s="15">
         <v>2.46</v>
       </c>
       <c r="W33" s="2">
@@ -4224,7 +4215,7 @@
         <v>300670</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E34" s="4">
         <v>-2.66</v>
@@ -4233,7 +4224,7 @@
         <v>7.69</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H34" s="4">
         <v>-1.82</v>
@@ -4245,7 +4236,7 @@
         <v>2.73</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L34" s="9"/>
       <c r="M34" s="4">
@@ -4261,21 +4252,21 @@
         <v>-1.04</v>
       </c>
       <c r="Q34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T34" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U34" s="12">
-        <v>0</v>
-      </c>
-      <c r="V34" s="13">
+        <v>25</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U34" s="14">
+        <v>0</v>
+      </c>
+      <c r="V34" s="15">
         <v>0.53</v>
       </c>
       <c r="W34" s="2">
@@ -4293,7 +4284,7 @@
         <v>300682</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E35" s="4">
         <v>-4.38</v>
@@ -4302,7 +4293,7 @@
         <v>20.75</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H35" s="4">
         <v>2.17</v>
@@ -4314,7 +4305,7 @@
         <v>3.95</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L35" s="9"/>
       <c r="M35" s="4">
@@ -4330,21 +4321,21 @@
         <v>-0.25</v>
       </c>
       <c r="Q35" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U35" s="15">
+        <v>25</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U35" s="17">
         <v>1</v>
       </c>
-      <c r="V35" s="13">
+      <c r="V35" s="15">
         <v>9.8</v>
       </c>
       <c r="W35" s="2">
@@ -4362,7 +4353,7 @@
         <v>300697</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E36" s="4">
         <v>-0.96</v>
@@ -4371,7 +4362,7 @@
         <v>14.49</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H36" s="4">
         <v>3.04</v>
@@ -4383,7 +4374,7 @@
         <v>5.66</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L36" s="9"/>
       <c r="M36" s="4">
@@ -4399,21 +4390,21 @@
         <v>-0.07</v>
       </c>
       <c r="Q36" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T36" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U36" s="12">
-        <v>0</v>
-      </c>
-      <c r="V36" s="13">
+        <v>25</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T36" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U36" s="14">
+        <v>0</v>
+      </c>
+      <c r="V36" s="15">
         <v>1.5</v>
       </c>
       <c r="W36" s="2">
@@ -4431,7 +4422,7 @@
         <v>300753</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E37" s="4">
         <v>0.8</v>
@@ -4440,7 +4431,7 @@
         <v>31.35</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H37" s="4">
         <v>-1.72</v>
@@ -4452,7 +4443,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L37" s="9"/>
       <c r="M37" s="4">
@@ -4468,21 +4459,21 @@
         <v>-0.48</v>
       </c>
       <c r="Q37" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T37" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U37" s="12">
-        <v>0</v>
-      </c>
-      <c r="V37" s="13">
+        <v>25</v>
+      </c>
+      <c r="R37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U37" s="14">
+        <v>0</v>
+      </c>
+      <c r="V37" s="15">
         <v>0.59</v>
       </c>
       <c r="W37" s="2">
@@ -4500,7 +4491,7 @@
         <v>300773</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E38" s="4">
         <v>-3.95</v>
@@ -4509,7 +4500,7 @@
         <v>29.19</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H38" s="4">
         <v>1.1</v>
@@ -4521,7 +4512,7 @@
         <v>3.97</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="4">
@@ -4537,21 +4528,21 @@
         <v>-0.81</v>
       </c>
       <c r="Q38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T38" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U38" s="12">
-        <v>0</v>
-      </c>
-      <c r="V38" s="13">
+        <v>25</v>
+      </c>
+      <c r="R38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U38" s="14">
+        <v>0</v>
+      </c>
+      <c r="V38" s="15">
         <v>4.17</v>
       </c>
       <c r="W38" s="2">
@@ -4569,7 +4560,7 @@
         <v>300778</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E39" s="4">
         <v>19.99</v>
@@ -4578,7 +4569,7 @@
         <v>21.43</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H39" s="4">
         <v>-12.93</v>
@@ -4590,7 +4581,7 @@
         <v>-0.19</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L39" s="9"/>
       <c r="M39" s="4">
@@ -4606,21 +4597,21 @@
         <v>-0.85</v>
       </c>
       <c r="Q39" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T39" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U39" s="15">
+        <v>25</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U39" s="17">
         <v>1</v>
       </c>
-      <c r="V39" s="13">
+      <c r="V39" s="15">
         <v>14.49</v>
       </c>
       <c r="W39" s="2">
@@ -4638,7 +4629,7 @@
         <v>300803</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E40" s="4">
         <v>-0.22</v>
@@ -4647,7 +4638,7 @@
         <v>78.63</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H40" s="4">
         <v>13.06</v>
@@ -4659,7 +4650,7 @@
         <v>18.26</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="L40" s="9"/>
       <c r="M40" s="4">
@@ -4675,21 +4666,21 @@
         <v>-0.02</v>
       </c>
       <c r="Q40" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T40" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U40" s="12">
-        <v>0</v>
-      </c>
-      <c r="V40" s="13">
+        <v>25</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T40" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U40" s="14">
+        <v>0</v>
+      </c>
+      <c r="V40" s="15">
         <v>4.37</v>
       </c>
       <c r="W40" s="2">
@@ -4707,7 +4698,7 @@
         <v>300821</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E41" s="4">
         <v>4.92</v>
@@ -4716,7 +4707,7 @@
         <v>10.66</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H41" s="4">
         <v>-3.56</v>
@@ -4728,7 +4719,7 @@
         <v>0.38</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L41" s="9"/>
       <c r="M41" s="4">
@@ -4744,21 +4735,21 @@
         <v>-0.62</v>
       </c>
       <c r="Q41" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U41" s="12">
-        <v>0</v>
-      </c>
-      <c r="V41" s="13">
+        <v>25</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U41" s="14">
+        <v>0</v>
+      </c>
+      <c r="V41" s="15">
         <v>1.13</v>
       </c>
       <c r="W41" s="2">
@@ -4776,7 +4767,7 @@
         <v>300847</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E42" s="4">
         <v>3.66</v>
@@ -4785,7 +4776,7 @@
         <v>21.5</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H42" s="4">
         <v>-0.23</v>
@@ -4797,7 +4788,7 @@
         <v>6.93</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L42" s="9"/>
       <c r="M42" s="4">
@@ -4813,21 +4804,21 @@
         <v>1.14</v>
       </c>
       <c r="Q42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T42" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U42" s="12">
-        <v>0</v>
-      </c>
-      <c r="V42" s="13">
+        <v>25</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T42" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U42" s="14">
+        <v>0</v>
+      </c>
+      <c r="V42" s="15">
         <v>0.85</v>
       </c>
       <c r="W42" s="2">
@@ -4845,7 +4836,7 @@
         <v>300872</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E43" s="4">
         <v>-2.55</v>
@@ -4854,7 +4845,7 @@
         <v>25.2</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H43" s="4">
         <v>-0.75</v>
@@ -4866,7 +4857,7 @@
         <v>2.14</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L43" s="9"/>
       <c r="M43" s="4">
@@ -4882,21 +4873,21 @@
         <v>-0.9</v>
       </c>
       <c r="Q43" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T43" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U43" s="12">
-        <v>0</v>
-      </c>
-      <c r="V43" s="13">
+        <v>25</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U43" s="14">
+        <v>0</v>
+      </c>
+      <c r="V43" s="15">
         <v>5.88</v>
       </c>
       <c r="W43" s="2">
@@ -4914,7 +4905,7 @@
         <v>300875</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E44" s="4">
         <v>-8.6</v>
@@ -4923,7 +4914,7 @@
         <v>42.96</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H44" s="4">
         <v>-0.19</v>
@@ -4935,7 +4926,7 @@
         <v>2.19</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L44" s="9"/>
       <c r="M44" s="4">
@@ -4951,21 +4942,21 @@
         <v>-2.14</v>
       </c>
       <c r="Q44" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U44" s="12">
-        <v>0</v>
-      </c>
-      <c r="V44" s="13">
+        <v>25</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U44" s="14">
+        <v>0</v>
+      </c>
+      <c r="V44" s="15">
         <v>1.86</v>
       </c>
       <c r="W44" s="2">
@@ -4983,7 +4974,7 @@
         <v>300903</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E45" s="4">
         <v>-3.33</v>
@@ -4992,7 +4983,7 @@
         <v>10.73</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H45" s="4">
         <v>-1.77</v>
@@ -5004,7 +4995,7 @@
         <v>3.45</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="L45" s="9"/>
       <c r="M45" s="4">
@@ -5020,21 +5011,21 @@
         <v>-0.92</v>
       </c>
       <c r="Q45" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T45" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U45" s="12">
-        <v>0</v>
-      </c>
-      <c r="V45" s="13">
+        <v>25</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U45" s="14">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
         <v>3.2</v>
       </c>
       <c r="W45" s="2">
@@ -5052,7 +5043,7 @@
         <v>300930</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E46" s="4">
         <v>-5.84</v>
@@ -5061,7 +5052,7 @@
         <v>32.58</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H46" s="4">
         <v>1.57</v>
@@ -5073,7 +5064,7 @@
         <v>2.18</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L46" s="9"/>
       <c r="M46" s="4">
@@ -5089,21 +5080,21 @@
         <v>0.16</v>
       </c>
       <c r="Q46" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R46" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S46" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T46" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U46" s="12">
-        <v>0</v>
-      </c>
-      <c r="V46" s="13">
+        <v>25</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U46" s="14">
+        <v>0</v>
+      </c>
+      <c r="V46" s="15">
         <v>8.57</v>
       </c>
       <c r="W46" s="2">
@@ -5121,7 +5112,7 @@
         <v>300947</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E47" s="4">
         <v>11.11</v>
@@ -5130,7 +5121,7 @@
         <v>27.51</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H47" s="4">
         <v>-3.31</v>
@@ -5142,7 +5133,7 @@
         <v>-0.04</v>
       </c>
       <c r="K47" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L47" s="9"/>
       <c r="M47" s="4">
@@ -5158,24 +5149,24 @@
         <v>0.81</v>
       </c>
       <c r="Q47" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R47" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T47" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U47" s="15">
+        <v>25</v>
+      </c>
+      <c r="R47" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U47" s="17">
         <v>1</v>
       </c>
-      <c r="V47" s="13">
+      <c r="V47" s="15">
         <v>4.54</v>
       </c>
-      <c r="W47" s="16">
+      <c r="W47" s="18">
         <v>1</v>
       </c>
     </row>
@@ -5190,7 +5181,7 @@
         <v>300971</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E48" s="4">
         <v>-4.04</v>
@@ -5199,7 +5190,7 @@
         <v>21.85</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H48" s="4">
         <v>0.55</v>
@@ -5211,7 +5202,7 @@
         <v>1.51</v>
       </c>
       <c r="K48" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="L48" s="9"/>
       <c r="M48" s="4">
@@ -5227,21 +5218,21 @@
         <v>-0.63</v>
       </c>
       <c r="Q48" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T48" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U48" s="12">
-        <v>0</v>
-      </c>
-      <c r="V48" s="13">
+        <v>25</v>
+      </c>
+      <c r="R48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U48" s="14">
+        <v>0</v>
+      </c>
+      <c r="V48" s="15">
         <v>-0.38</v>
       </c>
       <c r="W48" s="2">
@@ -5259,7 +5250,7 @@
         <v>300982</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E49" s="4">
         <v>-6.96</v>
@@ -5268,7 +5259,7 @@
         <v>22.04</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="H49" s="4">
         <v>-3.54</v>
@@ -5280,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L49" s="9"/>
       <c r="M49" s="4">
@@ -5296,21 +5287,21 @@
         <v>-0.06</v>
       </c>
       <c r="Q49" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T49" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U49" s="12">
-        <v>0</v>
-      </c>
-      <c r="V49" s="13">
+        <v>25</v>
+      </c>
+      <c r="R49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U49" s="14">
+        <v>0</v>
+      </c>
+      <c r="V49" s="15">
         <v>-1.69</v>
       </c>
       <c r="W49" s="2">
@@ -5328,7 +5319,7 @@
         <v>300987</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E50" s="4">
         <v>-1.66</v>
@@ -5337,7 +5328,7 @@
         <v>20.2</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H50" s="4">
         <v>-2.08</v>
@@ -5349,7 +5340,7 @@
         <v>-0.05</v>
       </c>
       <c r="K50" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L50" s="9"/>
       <c r="M50" s="4">
@@ -5365,21 +5356,21 @@
         <v>-0.43</v>
       </c>
       <c r="Q50" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R50" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S50" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T50" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U50" s="12">
-        <v>0</v>
-      </c>
-      <c r="V50" s="13">
+        <v>25</v>
+      </c>
+      <c r="R50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U50" s="14">
+        <v>0</v>
+      </c>
+      <c r="V50" s="15">
         <v>0.59</v>
       </c>
       <c r="W50" s="2">
@@ -5397,7 +5388,7 @@
         <v>300991</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E51" s="4">
         <v>-4.88</v>
@@ -5406,7 +5397,7 @@
         <v>32.18</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H51" s="4">
         <v>-7.49</v>
@@ -5418,7 +5409,7 @@
         <v>-3.26</v>
       </c>
       <c r="K51" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L51" s="9"/>
       <c r="M51" s="4">
@@ -5434,21 +5425,21 @@
         <v>-1.23</v>
       </c>
       <c r="Q51" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T51" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U51" s="15">
+        <v>25</v>
+      </c>
+      <c r="R51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U51" s="17">
         <v>1</v>
       </c>
-      <c r="V51" s="13">
+      <c r="V51" s="15">
         <v>6.88</v>
       </c>
       <c r="W51" s="2">
@@ -5466,7 +5457,7 @@
         <v>300993</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E52" s="4">
         <v>-1.05</v>
@@ -5475,7 +5466,7 @@
         <v>15.01</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H52" s="4">
         <v>-1.27</v>
@@ -5487,7 +5478,7 @@
         <v>-0.2</v>
       </c>
       <c r="K52" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L52" s="9"/>
       <c r="M52" s="4">
@@ -5503,21 +5494,21 @@
         <v>-0.65</v>
       </c>
       <c r="Q52" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T52" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U52" s="12">
-        <v>0</v>
-      </c>
-      <c r="V52" s="13">
+        <v>25</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U52" s="14">
+        <v>0</v>
+      </c>
+      <c r="V52" s="15">
         <v>4.91</v>
       </c>
       <c r="W52" s="2">
@@ -5535,7 +5526,7 @@
         <v>301024</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E53" s="4">
         <v>-1.51</v>
@@ -5544,7 +5535,7 @@
         <v>56.6</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H53" s="4">
         <v>-5.51</v>
@@ -5556,7 +5547,7 @@
         <v>10.48</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L53" s="9"/>
       <c r="M53" s="4">
@@ -5572,21 +5563,21 @@
         <v>-0.09</v>
       </c>
       <c r="Q53" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R53" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S53" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T53" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U53" s="12">
-        <v>0</v>
-      </c>
-      <c r="V53" s="13">
+        <v>25</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T53" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U53" s="14">
+        <v>0</v>
+      </c>
+      <c r="V53" s="15">
         <v>3.63</v>
       </c>
       <c r="W53" s="2">
@@ -5604,7 +5595,7 @@
         <v>301120</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E54" s="4">
         <v>0.85</v>
@@ -5613,7 +5604,7 @@
         <v>14.24</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H54" s="4">
         <v>-8.5</v>
@@ -5625,7 +5616,7 @@
         <v>-2.39</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L54" s="9"/>
       <c r="M54" s="4">
@@ -5641,21 +5632,21 @@
         <v>-5.14</v>
       </c>
       <c r="Q54" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T54" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U54" s="15">
+        <v>25</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U54" s="17">
         <v>1</v>
       </c>
-      <c r="V54" s="13">
+      <c r="V54" s="15">
         <v>1.6</v>
       </c>
       <c r="W54" s="2">
@@ -5673,7 +5664,7 @@
         <v>301132</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E55" s="4">
         <v>-3.14</v>
@@ -5682,7 +5673,7 @@
         <v>34.52</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H55" s="4">
         <v>-1.16</v>
@@ -5694,7 +5685,7 @@
         <v>-0.38</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L55" s="9"/>
       <c r="M55" s="4">
@@ -5710,21 +5701,21 @@
         <v>-2.06</v>
       </c>
       <c r="Q55" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T55" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U55" s="12">
-        <v>0</v>
-      </c>
-      <c r="V55" s="13">
+        <v>25</v>
+      </c>
+      <c r="R55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U55" s="14">
+        <v>0</v>
+      </c>
+      <c r="V55" s="15">
         <v>1.51</v>
       </c>
       <c r="W55" s="2">
@@ -5742,7 +5733,7 @@
         <v>301141</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E56" s="4">
         <v>4.06</v>
@@ -5751,7 +5742,7 @@
         <v>65.05</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H56" s="4">
         <v>14.77</v>
@@ -5763,7 +5754,7 @@
         <v>19.6</v>
       </c>
       <c r="K56" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L56" s="9"/>
       <c r="M56" s="4">
@@ -5779,21 +5770,21 @@
         <v>-0.52</v>
       </c>
       <c r="Q56" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S56" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T56" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U56" s="12">
-        <v>0</v>
-      </c>
-      <c r="V56" s="13">
+        <v>25</v>
+      </c>
+      <c r="R56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T56" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U56" s="14">
+        <v>0</v>
+      </c>
+      <c r="V56" s="15">
         <v>-0.26</v>
       </c>
       <c r="W56" s="2">
@@ -5811,7 +5802,7 @@
         <v>301150</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E57" s="4">
         <v>-7.93</v>
@@ -5820,7 +5811,7 @@
         <v>23.68</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H57" s="4">
         <v>-2.96</v>
@@ -5832,7 +5823,7 @@
         <v>0.8</v>
       </c>
       <c r="K57" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L57" s="9"/>
       <c r="M57" s="4">
@@ -5848,21 +5839,21 @@
         <v>-0.74</v>
       </c>
       <c r="Q57" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T57" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U57" s="12">
-        <v>0</v>
-      </c>
-      <c r="V57" s="13">
+        <v>25</v>
+      </c>
+      <c r="R57" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S57" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T57" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U57" s="14">
+        <v>0</v>
+      </c>
+      <c r="V57" s="15">
         <v>2.81</v>
       </c>
       <c r="W57" s="2">
@@ -5880,7 +5871,7 @@
         <v>301165</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E58" s="4">
         <v>-1.52</v>
@@ -5889,7 +5880,7 @@
         <v>59.56</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H58" s="4">
         <v>2</v>
@@ -5901,7 +5892,7 @@
         <v>3.24</v>
       </c>
       <c r="K58" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L58" s="9"/>
       <c r="M58" s="4">
@@ -5917,21 +5908,21 @@
         <v>-0.4</v>
       </c>
       <c r="Q58" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T58" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U58" s="12">
-        <v>0</v>
-      </c>
-      <c r="V58" s="13">
+        <v>25</v>
+      </c>
+      <c r="R58" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S58" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T58" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U58" s="14">
+        <v>0</v>
+      </c>
+      <c r="V58" s="15">
         <v>2.63</v>
       </c>
       <c r="W58" s="2">
@@ -5949,7 +5940,7 @@
         <v>301176</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E59" s="4">
         <v>-6.87</v>
@@ -5958,7 +5949,7 @@
         <v>36.75</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H59" s="4">
         <v>-6.07</v>
@@ -5970,7 +5961,7 @@
         <v>-3.51</v>
       </c>
       <c r="K59" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L59" s="9"/>
       <c r="M59" s="4">
@@ -5986,21 +5977,21 @@
         <v>-1.14</v>
       </c>
       <c r="Q59" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R59" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S59" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T59" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U59" s="12">
-        <v>0</v>
-      </c>
-      <c r="V59" s="13">
+        <v>25</v>
+      </c>
+      <c r="R59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T59" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U59" s="14">
+        <v>0</v>
+      </c>
+      <c r="V59" s="15">
         <v>3.28</v>
       </c>
       <c r="W59" s="2">
@@ -6018,7 +6009,7 @@
         <v>301178</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E60" s="4">
         <v>-2.67</v>
@@ -6027,7 +6018,7 @@
         <v>57.31</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H60" s="4">
         <v>1.12</v>
@@ -6039,7 +6030,7 @@
         <v>2.7</v>
       </c>
       <c r="K60" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L60" s="9"/>
       <c r="M60" s="4">
@@ -6055,21 +6046,21 @@
         <v>-1.47</v>
       </c>
       <c r="Q60" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T60" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U60" s="12">
-        <v>0</v>
-      </c>
-      <c r="V60" s="13">
+        <v>25</v>
+      </c>
+      <c r="R60" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S60" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T60" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U60" s="14">
+        <v>0</v>
+      </c>
+      <c r="V60" s="15">
         <v>0.62</v>
       </c>
       <c r="W60" s="2">
@@ -6087,7 +6078,7 @@
         <v>301197</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E61" s="4">
         <v>-6.4</v>
@@ -6096,7 +6087,7 @@
         <v>22.54</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H61" s="4">
         <v>4.37</v>
@@ -6108,7 +6099,7 @@
         <v>14.46</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L61" s="9"/>
       <c r="M61" s="4">
@@ -6124,21 +6115,21 @@
         <v>-0.85</v>
       </c>
       <c r="Q61" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S61" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T61" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U61" s="12">
-        <v>0</v>
-      </c>
-      <c r="V61" s="13">
+        <v>25</v>
+      </c>
+      <c r="R61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S61" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T61" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U61" s="14">
+        <v>0</v>
+      </c>
+      <c r="V61" s="15">
         <v>-0.74</v>
       </c>
       <c r="W61" s="2">
@@ -6156,7 +6147,7 @@
         <v>301208</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E62" s="4">
         <v>-9.23</v>
@@ -6165,7 +6156,7 @@
         <v>48.26</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H62" s="4">
         <v>6.46</v>
@@ -6177,7 +6168,7 @@
         <v>8.79</v>
       </c>
       <c r="K62" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L62" s="9"/>
       <c r="M62" s="4">
@@ -6193,21 +6184,21 @@
         <v>-2.05</v>
       </c>
       <c r="Q62" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S62" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T62" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U62" s="12">
-        <v>0</v>
-      </c>
-      <c r="V62" s="13">
+        <v>25</v>
+      </c>
+      <c r="R62" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T62" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U62" s="14">
+        <v>0</v>
+      </c>
+      <c r="V62" s="15">
         <v>2.3</v>
       </c>
       <c r="W62" s="2">
@@ -6225,7 +6216,7 @@
         <v>301217</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E63" s="4">
         <v>-4.94</v>
@@ -6234,7 +6225,7 @@
         <v>19.26</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H63" s="4">
         <v>-0.16</v>
@@ -6246,7 +6237,7 @@
         <v>7.58</v>
       </c>
       <c r="K63" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L63" s="9"/>
       <c r="M63" s="4">
@@ -6262,21 +6253,21 @@
         <v>-3.05</v>
       </c>
       <c r="Q63" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R63" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S63" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T63" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U63" s="12">
-        <v>0</v>
-      </c>
-      <c r="V63" s="13">
+        <v>25</v>
+      </c>
+      <c r="R63" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T63" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U63" s="14">
+        <v>0</v>
+      </c>
+      <c r="V63" s="15">
         <v>2.06</v>
       </c>
       <c r="W63" s="2">
@@ -6294,7 +6285,7 @@
         <v>301234</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E64" s="4">
         <v>-5.43</v>
@@ -6303,7 +6294,7 @@
         <v>37.26</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H64" s="4">
         <v>-6.33</v>
@@ -6315,7 +6306,7 @@
         <v>-3.46</v>
       </c>
       <c r="K64" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L64" s="9"/>
       <c r="M64" s="4">
@@ -6331,21 +6322,21 @@
         <v>-0.19</v>
       </c>
       <c r="Q64" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R64" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S64" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T64" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U64" s="12">
-        <v>0</v>
-      </c>
-      <c r="V64" s="13">
+        <v>25</v>
+      </c>
+      <c r="R64" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T64" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U64" s="14">
+        <v>0</v>
+      </c>
+      <c r="V64" s="15">
         <v>3.24</v>
       </c>
       <c r="W64" s="2">
@@ -6363,7 +6354,7 @@
         <v>301257</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E65" s="4">
         <v>-5.88</v>
@@ -6372,7 +6363,7 @@
         <v>36.51</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H65" s="4">
         <v>0.3</v>
@@ -6384,7 +6375,7 @@
         <v>5.89</v>
       </c>
       <c r="K65" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L65" s="9"/>
       <c r="M65" s="4">
@@ -6400,21 +6391,21 @@
         <v>-0.94</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T65" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U65" s="12">
-        <v>0</v>
-      </c>
-      <c r="V65" s="13">
+        <v>25</v>
+      </c>
+      <c r="R65" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T65" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U65" s="14">
+        <v>0</v>
+      </c>
+      <c r="V65" s="15">
         <v>2.83</v>
       </c>
       <c r="W65" s="2">
@@ -6432,7 +6423,7 @@
         <v>301258</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E66" s="4">
         <v>-5.95</v>
@@ -6441,7 +6432,7 @@
         <v>34</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="H66" s="4">
         <v>0.82</v>
@@ -6453,7 +6444,7 @@
         <v>4.35</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L66" s="9"/>
       <c r="M66" s="4">
@@ -6469,21 +6460,21 @@
         <v>-0.51</v>
       </c>
       <c r="Q66" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R66" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S66" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T66" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U66" s="12">
-        <v>0</v>
-      </c>
-      <c r="V66" s="13">
+        <v>25</v>
+      </c>
+      <c r="R66" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S66" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T66" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U66" s="14">
+        <v>0</v>
+      </c>
+      <c r="V66" s="15">
         <v>0.85</v>
       </c>
       <c r="W66" s="2">
@@ -6501,7 +6492,7 @@
         <v>301306</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E67" s="4">
         <v>-3.32</v>
@@ -6510,7 +6501,7 @@
         <v>51</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="H67" s="4">
         <v>0.43</v>
@@ -6522,7 +6513,7 @@
         <v>1.35</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L67" s="9"/>
       <c r="M67" s="4">
@@ -6538,21 +6529,21 @@
         <v>-1.82</v>
       </c>
       <c r="Q67" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T67" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U67" s="12">
-        <v>0</v>
-      </c>
-      <c r="V67" s="13">
+        <v>25</v>
+      </c>
+      <c r="R67" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S67" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T67" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U67" s="14">
+        <v>0</v>
+      </c>
+      <c r="V67" s="15">
         <v>4.85</v>
       </c>
       <c r="W67" s="2">
@@ -6570,7 +6561,7 @@
         <v>301312</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E68" s="4">
         <v>-0.75</v>
@@ -6579,7 +6570,7 @@
         <v>40.8</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H68" s="4">
         <v>1.18</v>
@@ -6591,7 +6582,7 @@
         <v>3.36</v>
       </c>
       <c r="K68" s="8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="L68" s="9"/>
       <c r="M68" s="4">
@@ -6607,21 +6598,21 @@
         <v>-0.66</v>
       </c>
       <c r="Q68" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T68" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U68" s="12">
-        <v>0</v>
-      </c>
-      <c r="V68" s="13">
+        <v>25</v>
+      </c>
+      <c r="R68" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S68" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T68" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U68" s="14">
+        <v>0</v>
+      </c>
+      <c r="V68" s="15">
         <v>4.66</v>
       </c>
       <c r="W68" s="2">
@@ -6639,7 +6630,7 @@
         <v>301345</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E69" s="4">
         <v>1.59</v>
@@ -6648,7 +6639,7 @@
         <v>143.41</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H69" s="4">
         <v>-2.61</v>
@@ -6660,7 +6651,7 @@
         <v>4.53</v>
       </c>
       <c r="K69" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L69" s="9"/>
       <c r="M69" s="4">
@@ -6676,21 +6667,21 @@
         <v>0.76</v>
       </c>
       <c r="Q69" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T69" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U69" s="12">
-        <v>0</v>
-      </c>
-      <c r="V69" s="13">
+        <v>25</v>
+      </c>
+      <c r="R69" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S69" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T69" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U69" s="14">
+        <v>0</v>
+      </c>
+      <c r="V69" s="15">
         <v>5.32</v>
       </c>
       <c r="W69" s="2">
@@ -6708,7 +6699,7 @@
         <v>301388</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E70" s="4">
         <v>-10.48</v>
@@ -6717,7 +6708,7 @@
         <v>35.79</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H70" s="4">
         <v>-1.9</v>
@@ -6729,7 +6720,7 @@
         <v>4.22</v>
       </c>
       <c r="K70" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L70" s="9"/>
       <c r="M70" s="4">
@@ -6745,21 +6736,21 @@
         <v>-1.94</v>
       </c>
       <c r="Q70" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T70" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U70" s="12">
-        <v>0</v>
-      </c>
-      <c r="V70" s="13">
+        <v>25</v>
+      </c>
+      <c r="R70" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S70" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T70" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U70" s="14">
+        <v>0</v>
+      </c>
+      <c r="V70" s="15">
         <v>4.25</v>
       </c>
       <c r="W70" s="2">
@@ -6777,7 +6768,7 @@
         <v>301389</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E71" s="4">
         <v>-10.18</v>
@@ -6786,7 +6777,7 @@
         <v>34.14</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H71" s="4">
         <v>-2.31</v>
@@ -6798,7 +6789,7 @@
         <v>2.17</v>
       </c>
       <c r="K71" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L71" s="9"/>
       <c r="M71" s="4">
@@ -6814,21 +6805,21 @@
         <v>-1.92</v>
       </c>
       <c r="Q71" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T71" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U71" s="12">
-        <v>0</v>
-      </c>
-      <c r="V71" s="13">
+        <v>25</v>
+      </c>
+      <c r="R71" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S71" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T71" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U71" s="14">
+        <v>0</v>
+      </c>
+      <c r="V71" s="15">
         <v>2.58</v>
       </c>
       <c r="W71" s="2">
@@ -6846,7 +6837,7 @@
         <v>301421</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E72" s="4">
         <v>-1.61</v>
@@ -6855,7 +6846,7 @@
         <v>70.15</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H72" s="4">
         <v>2.79</v>
@@ -6867,7 +6858,7 @@
         <v>3.44</v>
       </c>
       <c r="K72" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L72" s="9"/>
       <c r="M72" s="4">
@@ -6883,21 +6874,21 @@
         <v>-0.5</v>
       </c>
       <c r="Q72" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T72" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U72" s="12">
-        <v>0</v>
-      </c>
-      <c r="V72" s="13">
+        <v>25</v>
+      </c>
+      <c r="R72" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S72" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U72" s="14">
+        <v>0</v>
+      </c>
+      <c r="V72" s="15">
         <v>2.31</v>
       </c>
       <c r="W72" s="2">
@@ -6915,7 +6906,7 @@
         <v>301511</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E73" s="4">
         <v>-1.9</v>
@@ -6924,7 +6915,7 @@
         <v>25.26</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="H73" s="4">
         <v>-2.61</v>
@@ -6936,7 +6927,7 @@
         <v>-0.08</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L73" s="9"/>
       <c r="M73" s="4">
@@ -6952,21 +6943,21 @@
         <v>-1.43</v>
       </c>
       <c r="Q73" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R73" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S73" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T73" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U73" s="12">
-        <v>0</v>
-      </c>
-      <c r="V73" s="13">
+        <v>25</v>
+      </c>
+      <c r="R73" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S73" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T73" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U73" s="14">
+        <v>0</v>
+      </c>
+      <c r="V73" s="15">
         <v>2.82</v>
       </c>
       <c r="W73" s="2">
@@ -6984,7 +6975,7 @@
         <v>301526</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E74" s="4">
         <v>3</v>
@@ -6993,7 +6984,7 @@
         <v>5.5</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H74" s="4">
         <v>-9.09</v>
@@ -7005,7 +6996,7 @@
         <v>-0.36</v>
       </c>
       <c r="K74" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L74" s="9"/>
       <c r="M74" s="4">
@@ -7021,21 +7012,21 @@
         <v>0.22</v>
       </c>
       <c r="Q74" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R74" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="S74" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T74" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U74" s="12">
-        <v>0</v>
-      </c>
-      <c r="V74" s="13">
+        <v>25</v>
+      </c>
+      <c r="R74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="S74" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U74" s="14">
+        <v>0</v>
+      </c>
+      <c r="V74" s="15">
         <v>2.22</v>
       </c>
       <c r="W74" s="2">
@@ -7053,7 +7044,7 @@
         <v>688062</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E75" s="4">
         <v>4.38</v>
@@ -7062,7 +7053,7 @@
         <v>31.73</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H75" s="4">
         <v>0.85</v>
@@ -7074,7 +7065,7 @@
         <v>2.43</v>
       </c>
       <c r="K75" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L75" s="9"/>
       <c r="M75" s="4">
@@ -7090,21 +7081,21 @@
         <v>0.48</v>
       </c>
       <c r="Q75" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R75" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S75" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T75" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U75" s="12">
-        <v>0</v>
-      </c>
-      <c r="V75" s="13">
+        <v>25</v>
+      </c>
+      <c r="R75" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S75" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T75" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U75" s="14">
+        <v>0</v>
+      </c>
+      <c r="V75" s="15">
         <v>4.84</v>
       </c>
       <c r="W75" s="2">
@@ -7122,7 +7113,7 @@
         <v>688117</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E76" s="4">
         <v>-0.2</v>
@@ -7131,7 +7122,7 @@
         <v>34.44</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H76" s="4">
         <v>1.89</v>
@@ -7143,7 +7134,7 @@
         <v>3.95</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L76" s="9"/>
       <c r="M76" s="4">
@@ -7159,21 +7150,21 @@
         <v>0.06</v>
       </c>
       <c r="Q76" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R76" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S76" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T76" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U76" s="12">
-        <v>0</v>
-      </c>
-      <c r="V76" s="13">
+        <v>25</v>
+      </c>
+      <c r="R76" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S76" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T76" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U76" s="14">
+        <v>0</v>
+      </c>
+      <c r="V76" s="15">
         <v>1.4</v>
       </c>
       <c r="W76" s="2">
@@ -7191,7 +7182,7 @@
         <v>688202</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E77" s="4">
         <v>-2.04</v>
@@ -7200,7 +7191,7 @@
         <v>50.3</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H77" s="4">
         <v>7.22</v>
@@ -7212,7 +7203,7 @@
         <v>11.31</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L77" s="9"/>
       <c r="M77" s="4">
@@ -7228,21 +7219,21 @@
         <v>-0.69</v>
       </c>
       <c r="Q77" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R77" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S77" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T77" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U77" s="12">
-        <v>0</v>
-      </c>
-      <c r="V77" s="13">
+        <v>25</v>
+      </c>
+      <c r="R77" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S77" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T77" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U77" s="14">
+        <v>0</v>
+      </c>
+      <c r="V77" s="15">
         <v>1.91</v>
       </c>
       <c r="W77" s="2">
@@ -7260,7 +7251,7 @@
         <v>688221</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E78" s="4">
         <v>11.48</v>
@@ -7269,7 +7260,7 @@
         <v>16.12</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H78" s="4">
         <v>12.66</v>
@@ -7281,7 +7272,7 @@
         <v>14.7</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L78" s="9"/>
       <c r="M78" s="4">
@@ -7297,21 +7288,21 @@
         <v>-0.05</v>
       </c>
       <c r="Q78" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R78" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S78" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T78" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U78" s="12">
-        <v>0</v>
-      </c>
-      <c r="V78" s="13">
+        <v>25</v>
+      </c>
+      <c r="R78" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S78" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T78" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U78" s="14">
+        <v>0</v>
+      </c>
+      <c r="V78" s="15">
         <v>1.73</v>
       </c>
       <c r="W78" s="2">
@@ -7329,7 +7320,7 @@
         <v>688291</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E79" s="4">
         <v>-9.41</v>
@@ -7338,7 +7329,7 @@
         <v>34.85</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H79" s="4">
         <v>-0.26</v>
@@ -7350,7 +7341,7 @@
         <v>1.75</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L79" s="9"/>
       <c r="M79" s="4">
@@ -7366,21 +7357,21 @@
         <v>-1.98</v>
       </c>
       <c r="Q79" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R79" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S79" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T79" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U79" s="12">
-        <v>0</v>
-      </c>
-      <c r="V79" s="13">
+        <v>25</v>
+      </c>
+      <c r="R79" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S79" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T79" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U79" s="14">
+        <v>0</v>
+      </c>
+      <c r="V79" s="15">
         <v>4.53</v>
       </c>
       <c r="W79" s="2">
@@ -7398,7 +7389,7 @@
         <v>688321</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E80" s="4">
         <v>4.38</v>
@@ -7407,7 +7398,7 @@
         <v>32.67</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H80" s="4">
         <v>3.46</v>
@@ -7419,7 +7410,7 @@
         <v>6.52</v>
       </c>
       <c r="K80" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L80" s="9"/>
       <c r="M80" s="4">
@@ -7435,21 +7426,21 @@
         <v>-0.03</v>
       </c>
       <c r="Q80" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R80" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S80" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T80" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="U80" s="12">
-        <v>0</v>
-      </c>
-      <c r="V80" s="13">
+        <v>25</v>
+      </c>
+      <c r="R80" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S80" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T80" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="U80" s="14">
+        <v>0</v>
+      </c>
+      <c r="V80" s="15">
         <v>4.41</v>
       </c>
       <c r="W80" s="2">
@@ -7467,7 +7458,7 @@
         <v>688499</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E81" s="4">
         <v>0.15</v>
@@ -7476,7 +7467,7 @@
         <v>39.46</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H81" s="4">
         <v>-0.46</v>
@@ -7488,7 +7479,7 @@
         <v>1.37</v>
       </c>
       <c r="K81" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L81" s="9"/>
       <c r="M81" s="4">
@@ -7504,21 +7495,21 @@
         <v>-0.32</v>
       </c>
       <c r="Q81" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R81" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S81" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T81" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U81" s="12">
-        <v>0</v>
-      </c>
-      <c r="V81" s="13">
+        <v>25</v>
+      </c>
+      <c r="R81" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S81" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T81" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U81" s="14">
+        <v>0</v>
+      </c>
+      <c r="V81" s="15">
         <v>3.42</v>
       </c>
       <c r="W81" s="2">
@@ -7536,7 +7527,7 @@
         <v>688553</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E82" s="4">
         <v>1.55</v>
@@ -7545,7 +7536,7 @@
         <v>20.33</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H82" s="4">
         <v>-1.28</v>
@@ -7557,7 +7548,7 @@
         <v>3.05</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L82" s="9"/>
       <c r="M82" s="4">
@@ -7573,21 +7564,21 @@
         <v>0.43</v>
       </c>
       <c r="Q82" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R82" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S82" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T82" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U82" s="12">
-        <v>0</v>
-      </c>
-      <c r="V82" s="13">
+        <v>25</v>
+      </c>
+      <c r="R82" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S82" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T82" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U82" s="14">
+        <v>0</v>
+      </c>
+      <c r="V82" s="15">
         <v>0.74</v>
       </c>
       <c r="W82" s="2">
@@ -7605,7 +7596,7 @@
         <v>688717</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E83" s="4">
         <v>2.67</v>
@@ -7614,7 +7605,7 @@
         <v>66.61</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H83" s="4">
         <v>-3.92</v>
@@ -7626,7 +7617,7 @@
         <v>0.08</v>
       </c>
       <c r="K83" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="L83" s="9"/>
       <c r="M83" s="4">
@@ -7642,21 +7633,21 @@
         <v>-0.52</v>
       </c>
       <c r="Q83" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R83" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S83" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T83" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U83" s="12">
-        <v>0</v>
-      </c>
-      <c r="V83" s="13">
+        <v>25</v>
+      </c>
+      <c r="R83" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S83" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T83" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U83" s="14">
+        <v>0</v>
+      </c>
+      <c r="V83" s="15">
         <v>1.96</v>
       </c>
       <c r="W83" s="2">
@@ -7674,7 +7665,7 @@
         <v>688799</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E84" s="4">
         <v>14.85</v>
@@ -7683,9 +7674,9 @@
         <v>57.99</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H84" s="17">
+        <v>23</v>
+      </c>
+      <c r="H84" s="19">
         <v>0</v>
       </c>
       <c r="I84" s="4">
@@ -7695,7 +7686,7 @@
         <v>0.71</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L84" s="9"/>
       <c r="M84" s="4">
@@ -7711,21 +7702,21 @@
         <v>-0.35</v>
       </c>
       <c r="Q84" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R84" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="S84" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="T84" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="U84" s="12">
-        <v>0</v>
-      </c>
-      <c r="V84" s="13">
+        <v>25</v>
+      </c>
+      <c r="R84" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="S84" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="T84" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="U84" s="14">
+        <v>0</v>
+      </c>
+      <c r="V84" s="15">
         <v>5.25</v>
       </c>
       <c r="W84" s="2">
@@ -7733,124 +7724,124 @@
       </c>
     </row>
     <row r="85" spans="1:18">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="20"/>
-      <c r="E85" s="19"/>
-      <c r="F85" s="19"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="18"/>
-      <c r="I85" s="18"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="24"/>
-      <c r="L85" s="18"/>
-      <c r="M85" s="18"/>
-      <c r="N85" s="19"/>
-      <c r="O85" s="19"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="24"/>
-      <c r="R85" s="26"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="20"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="8"/>
+      <c r="R85" s="16"/>
     </row>
     <row r="86" spans="1:18">
-      <c r="A86" s="21"/>
-      <c r="B86" s="22"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="18"/>
-      <c r="I86" s="18"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="18"/>
-      <c r="L86" s="18"/>
-      <c r="M86" s="19"/>
-      <c r="N86" s="19"/>
-      <c r="O86" s="19"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="26"/>
-      <c r="R86" s="26"/>
+      <c r="A86" s="2"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="20"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="16"/>
+      <c r="R86" s="16"/>
     </row>
     <row r="87" spans="1:18">
-      <c r="A87" s="21"/>
-      <c r="B87" s="22"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="20"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="20"/>
-      <c r="H87" s="18"/>
-      <c r="I87" s="18"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="18"/>
-      <c r="L87" s="18"/>
-      <c r="M87" s="19"/>
-      <c r="N87" s="19"/>
-      <c r="O87" s="19"/>
-      <c r="P87" s="19"/>
-      <c r="Q87" s="24"/>
-      <c r="R87" s="27"/>
+      <c r="A87" s="2"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="20"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="4"/>
+      <c r="Q87" s="8"/>
+      <c r="R87" s="13"/>
     </row>
     <row r="88" spans="1:18">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="19"/>
-      <c r="D88" s="20"/>
-      <c r="E88" s="19"/>
-      <c r="F88" s="19"/>
-      <c r="G88" s="20"/>
-      <c r="H88" s="18"/>
-      <c r="I88" s="18"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="18"/>
-      <c r="L88" s="18"/>
-      <c r="M88" s="19"/>
-      <c r="N88" s="19"/>
-      <c r="O88" s="19"/>
-      <c r="P88" s="19"/>
-      <c r="Q88" s="24"/>
-      <c r="R88" s="27"/>
+      <c r="A88" s="2"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="20"/>
+      <c r="K88" s="9"/>
+      <c r="L88" s="9"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4"/>
+      <c r="Q88" s="8"/>
+      <c r="R88" s="13"/>
     </row>
     <row r="89" spans="1:18">
-      <c r="A89" s="21"/>
-      <c r="B89" s="22"/>
-      <c r="C89" s="19"/>
-      <c r="D89" s="20"/>
-      <c r="E89" s="19"/>
-      <c r="F89" s="19"/>
-      <c r="G89" s="20"/>
-      <c r="H89" s="18"/>
-      <c r="I89" s="18"/>
-      <c r="J89" s="23"/>
-      <c r="K89" s="18"/>
-      <c r="L89" s="18"/>
-      <c r="M89" s="19"/>
-      <c r="N89" s="19"/>
-      <c r="O89" s="19"/>
-      <c r="P89" s="19"/>
-      <c r="Q89" s="24"/>
-      <c r="R89" s="27"/>
+      <c r="A89" s="2"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="20"/>
+      <c r="K89" s="9"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="4"/>
+      <c r="Q89" s="8"/>
+      <c r="R89" s="13"/>
     </row>
     <row r="90" spans="1:18">
-      <c r="A90" s="21"/>
-      <c r="B90" s="22"/>
-      <c r="C90" s="19"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="19"/>
-      <c r="F90" s="19"/>
-      <c r="G90" s="20"/>
-      <c r="H90" s="18"/>
-      <c r="I90" s="18"/>
-      <c r="J90" s="23"/>
-      <c r="K90" s="18"/>
-      <c r="L90" s="18"/>
-      <c r="M90" s="19"/>
-      <c r="N90" s="19"/>
-      <c r="O90" s="19"/>
-      <c r="P90" s="25"/>
-      <c r="Q90" s="24"/>
-      <c r="R90" s="26"/>
+      <c r="A90" s="2"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="5"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
